--- a/validation/Total rocket emissions.xlsx
+++ b/validation/Total rocket emissions.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6753E7D-36FE-B44A-9269-E24591DBF75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8800AD70-8D60-9347-A6F2-C6DAABAA49A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39940" yWindow="3180" windowWidth="37840" windowHeight="24180" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
+    <workbookView xWindow="68620" yWindow="2560" windowWidth="37840" windowHeight="24180" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Climate change" sheetId="1" r:id="rId1"/>
+    <sheet name="Ozone depletion" sheetId="2" r:id="rId2"/>
+    <sheet name="Resource Depletion" sheetId="3" r:id="rId3"/>
+    <sheet name="Freshwater Toxicity" sheetId="4" r:id="rId4"/>
+    <sheet name="Human Toxicity" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="59">
   <si>
     <t>Category</t>
   </si>
@@ -141,17 +145,100 @@
   </si>
   <si>
     <t>Annual per Subscriber Costs</t>
+  </si>
+  <si>
+    <t>Falcon-9 Ozone Baseline Emissions</t>
+  </si>
+  <si>
+    <t>Falcon-9 Ozone Worst Case Emissions</t>
+  </si>
+  <si>
+    <t>Baseline Total Ozone Emissions</t>
+  </si>
+  <si>
+    <t>Soyuz-FG Ozone Baseline Emissions</t>
+  </si>
+  <si>
+    <t>Soyuz-FG Ozone Worst Case Baseline Emissions</t>
+  </si>
+  <si>
+    <t>Unknown HYC Ozone Baseline Emissions</t>
+  </si>
+  <si>
+    <t>Unknown HYC Ozone Worst Case Emissions</t>
+  </si>
+  <si>
+    <t>Unknown HYD Ozone Baseline Emissions</t>
+  </si>
+  <si>
+    <t>Unknown HYD Ozone Worst Case Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falcon-9 Resource Depletion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soyuz-FG Ozone Resource Depletion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown HYC Resource Depletion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown HYD Resource Depletion </t>
+  </si>
+  <si>
+    <t>Total Resource Depletion</t>
+  </si>
+  <si>
+    <t>Falcon-9 Freshwater Toxicity</t>
+  </si>
+  <si>
+    <t>Soyuz-FG Freshwater Toxicity</t>
+  </si>
+  <si>
+    <t>Unknown HYC Freshwater Toxicity</t>
+  </si>
+  <si>
+    <t>Unknown HYD Freshwater Toxicity</t>
+  </si>
+  <si>
+    <t>Total Freshwater Toxicity</t>
+  </si>
+  <si>
+    <t>Falcon-9 Human Toxicity</t>
+  </si>
+  <si>
+    <t>Soyuz-FG Human Toxicity</t>
+  </si>
+  <si>
+    <t>Unknown HYC Human Toxicity</t>
+  </si>
+  <si>
+    <t>Unknown HYD Human Toxicity</t>
+  </si>
+  <si>
+    <t>Total Human Toxicity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,25 +250,19 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Menlo"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +290,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9C55A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,52 +396,92 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -344,6 +489,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9C55A0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -655,143 +805,148 @@
   <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="2" customWidth="1"/>
+    <col min="9" max="12" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="16" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="42"/>
+      <c r="D1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="35"/>
+      <c r="G1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="18" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="4"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="6" t="s">
+      <c r="Q2" s="25"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="7">
         <v>4113533.9070000001</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>26728958.940000001</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>2500000</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="7">
         <v>3</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
         <v>67</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="7">
         <v>20</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="7">
         <f>I3*B10</f>
         <v>77600559.281729996</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
         <f>K3*B36</f>
         <v>2757562910.4841204</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="7">
         <f>B49*L3</f>
         <v>651159571.63639998</v>
       </c>
@@ -799,54 +954,54 @@
         <f>M3+O3+P3</f>
         <v>3486323041.4022503</v>
       </c>
-      <c r="R3" s="21">
-        <f>(Q3/1000)*185</f>
-        <v>644969762.65941632</v>
-      </c>
-      <c r="S3" s="21">
-        <f>(R3/H3)/5</f>
-        <v>51.597581012753302</v>
+      <c r="R3" s="44">
+        <f>((Q3/1000)*185)/1000000</f>
+        <v>644.96976265941635</v>
+      </c>
+      <c r="S3" s="44">
+        <f>((R3/H3)/5)*1000000</f>
+        <v>51.597581012753309</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="7">
         <v>4113533.9070000001</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2">
         <v>4113533.9070000001</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="7">
         <v>800000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="7">
         <v>5</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="7">
         <v>14</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="7">
         <f>B10*I4</f>
         <v>129334265.46954998</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="7">
         <f>B23*J4</f>
         <v>790278407.44731188</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1">
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
         <f>B49*L4</f>
         <v>65115957.16364</v>
       </c>
@@ -854,94 +1009,94 @@
         <f>M4+N4+P4</f>
         <v>984728630.08050191</v>
       </c>
-      <c r="R4" s="21">
-        <f t="shared" ref="R4:R6" si="0">(Q4/1000)*185</f>
-        <v>182174796.56489286</v>
-      </c>
-      <c r="S4" s="21">
-        <f t="shared" ref="S4:S5" si="1">(R4/H4)/5</f>
+      <c r="R4" s="44">
+        <f t="shared" ref="R4:R6" si="0">((Q4/1000)*185)/1000000</f>
+        <v>182.17479656489286</v>
+      </c>
+      <c r="S4" s="44">
+        <f t="shared" ref="S4:S5" si="1">((R4/H4)/5)*1000000</f>
         <v>45.543699141223215</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>1616263.557</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2">
         <v>1616263.557</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <v>3500000</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="7">
         <v>127</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7">
         <f>B10*I5</f>
         <v>3285090342.9265695</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="8">
         <f>M5</f>
         <v>3285090342.9265695</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="44">
         <f t="shared" si="0"/>
-        <v>607741713.44141531</v>
-      </c>
-      <c r="S5" s="21">
+        <v>607.7417134414153</v>
+      </c>
+      <c r="S5" s="44">
         <f t="shared" si="1"/>
-        <v>34.728097910938018</v>
+        <v>34.728097910938011</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>4744753.3389999997</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2">
         <v>4744753.3389999997</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="7">
         <v>2500000</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
         <v>10</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="7">
         <v>9</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
         <f>B36*K6</f>
         <v>411576553.80360007</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="7">
         <f>B49*L6</f>
         <v>293021807.23637998</v>
       </c>
@@ -949,158 +1104,158 @@
         <f>O6+P6</f>
         <v>704598361.03998005</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="44">
         <f t="shared" si="0"/>
-        <v>130350696.79239632</v>
-      </c>
-      <c r="S6" s="21">
-        <f>(R6/H6)/15</f>
-        <v>3.4760185811305684</v>
+        <v>130.35069679239632</v>
+      </c>
+      <c r="S6" s="44">
+        <f>((R6/H6)/15)*1000000</f>
+        <v>3.4760185811305688</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>5594990.9170000004</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2">
         <v>5594990.9170000004</v>
       </c>
-      <c r="S7" s="22"/>
+      <c r="S7" s="45"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="7">
         <v>17220.724910000001</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2">
         <v>17220.724910000001</v>
       </c>
-      <c r="S8" s="22"/>
+      <c r="S8" s="45"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>5666556.7419999996</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2">
         <v>5666556.7419999996</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11" t="s">
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="16" t="s">
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="46">
         <f>SUM(B3:B9)</f>
         <v>25866853.093909997</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="46">
         <f>SUM(E3:E9)</f>
         <v>48482278.126910001</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="7" t="s">
+      <c r="G10" s="36"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="10"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="23"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>2500000</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="7">
         <v>3</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
         <v>67</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="7">
         <v>20</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="7">
         <f>E10*I11</f>
         <v>145446834.38073</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
         <f>E36*K11</f>
         <v>3908562848.4681201</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="7">
         <f>E49*L11</f>
         <v>2794670099.6364002</v>
       </c>
@@ -1108,42 +1263,42 @@
         <f>M11+O11+P11</f>
         <v>6848679782.4852505</v>
       </c>
-      <c r="R11" s="21">
-        <f>(Q11/1000)*185</f>
-        <v>1267005759.7597713</v>
-      </c>
-      <c r="S11" s="21">
-        <f>(R11/H11)/5</f>
+      <c r="R11" s="44">
+        <f>((Q11/1000)*185)/1000000</f>
+        <v>1267.0057597597713</v>
+      </c>
+      <c r="S11" s="44">
+        <f>((R11/H11)/5)*1000000</f>
         <v>101.36046078078171</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="7">
         <v>800000</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="7">
         <v>5</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="7">
         <v>14</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
         <v>2</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="7">
         <f>E10*I12</f>
         <v>242411390.63455001</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="7">
         <f>E23*J12</f>
         <v>954677356.57291198</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1">
+      <c r="O12" s="7"/>
+      <c r="P12" s="7">
         <f>E49*L12</f>
         <v>279467009.96364003</v>
       </c>
@@ -1151,78 +1306,78 @@
         <f>M12+N12+P12</f>
         <v>1476555757.171102</v>
       </c>
-      <c r="R12" s="21">
-        <f t="shared" ref="R12:R14" si="2">(Q12/1000)*185</f>
-        <v>273162815.0766539</v>
-      </c>
-      <c r="S12" s="21">
-        <f t="shared" ref="S12:S14" si="3">(R12/H12)/5</f>
+      <c r="R12" s="44">
+        <f t="shared" ref="R12:R14" si="2">((Q12/1000)*185)/1000000</f>
+        <v>273.16281507665389</v>
+      </c>
+      <c r="S12" s="44">
+        <f t="shared" ref="S12:S13" si="3">((R12/H12)/5)*1000000</f>
         <v>68.290703769163471</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="7">
         <v>3500000</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="7">
         <v>127</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
         <f>E10*I13</f>
         <v>6157249322.1175699</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="8">
         <f>M13</f>
         <v>6157249322.1175699</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="44">
         <f t="shared" si="2"/>
-        <v>1139091124.5917504</v>
-      </c>
-      <c r="S13" s="21">
+        <v>1139.0911245917505</v>
+      </c>
+      <c r="S13" s="44">
         <f t="shared" si="3"/>
-        <v>65.090921405242881</v>
+        <v>65.090921405242895</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="42"/>
+      <c r="D14" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="40"/>
+      <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="7">
         <v>2500000</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7">
         <v>10</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="7">
         <v>9</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1">
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
         <f>E36*K14</f>
         <v>583367589.32360005</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="7">
         <f>E49*L14</f>
         <v>1257601544.8363802</v>
       </c>
@@ -1230,37 +1385,37 @@
         <f>O14+P14</f>
         <v>1840969134.1599803</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="44">
         <f t="shared" si="2"/>
-        <v>340579289.81959635</v>
-      </c>
-      <c r="S14" s="21">
-        <f>(R14/H14)/15</f>
+        <v>340.57928981959634</v>
+      </c>
+      <c r="S14" s="44">
+        <f>((R14/H14)/15)*1000000</f>
         <v>9.0821143951892349</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="2">
         <v>288655.10960000003</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="2">
@@ -1268,13 +1423,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2">
         <v>44680412.979999997</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="2">
@@ -1282,13 +1437,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="2">
         <v>1616263.557</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="2">
@@ -1296,13 +1451,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="2">
         <v>968910.19940000004</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="2">
@@ -1310,13 +1465,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="2">
         <v>3223330.483</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="2">
@@ -1324,13 +1479,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="2">
         <v>4328.6038079999998</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2">
@@ -1338,13 +1493,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="2">
         <v>5666556.7419999996</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="2">
@@ -1352,53 +1507,53 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="46">
         <f>SUM(B16:B22)</f>
         <v>56448457.674807996</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="46">
         <f>SUM(E16:E22)</f>
         <v>68191239.755208001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="D27" s="13" t="s">
+      <c r="B27" s="42"/>
+      <c r="D27" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="2">
         <v>2201094.5079999999</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="2">
@@ -1406,13 +1561,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="2">
         <v>24396973.440000001</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="2">
@@ -1420,13 +1575,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="2">
         <v>1616263.557</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="2">
@@ -1434,13 +1589,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="2">
         <v>2856831.7689999999</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="2">
@@ -1448,13 +1603,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2">
         <v>4409160.7</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="2">
@@ -1462,13 +1617,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="2">
         <v>10774.664360000001</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2">
@@ -1476,13 +1631,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="2">
         <v>5666556.7419999996</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="2">
@@ -1490,59 +1645,59 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="46">
         <f>SUM(B29:B35)</f>
         <v>41157655.380360007</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="46">
         <f>SUM(E29:E35)</f>
         <v>58336758.932360001</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38">
+      <c r="B38" s="2">
         <f>B36*67</f>
         <v>2757562910.4841204</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="D40" s="13" t="s">
+      <c r="B40" s="42"/>
+      <c r="D40" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="13"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="2">
         <v>467816.8</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="2">
@@ -1550,13 +1705,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="2">
         <v>11018755.48</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="2">
@@ -1564,13 +1719,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="2">
         <v>1616263.557</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="2">
@@ -1578,13 +1733,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="2">
         <v>4793267.4800000004</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="2">
@@ -1592,13 +1747,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="2">
         <v>8984275.3359999992</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="2">
@@ -1606,13 +1761,13 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="2">
         <v>11043.186820000001</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="2">
@@ -1620,13 +1775,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="2">
         <v>5666556.7419999996</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="2">
@@ -1634,17 +1789,17 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="46">
         <f>SUM(B42:B48)</f>
         <v>32557978.58182</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="46">
         <f>SUM(E42:E48)</f>
         <v>139733504.98182002</v>
       </c>
@@ -1662,6 +1817,7 @@
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="M9:P9"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="A1:B1"/>
@@ -1670,7 +1826,3076 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:E27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559E036-65B0-4E46-95DA-9D9F88511943}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H53" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="2" customWidth="1"/>
+    <col min="9" max="12" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="16" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="D1" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="G1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6837.18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30767.31</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
+        <v>67</v>
+      </c>
+      <c r="L3" s="7">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7">
+        <f>I3*B10</f>
+        <v>20518.325370500996</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <f>K3*B36</f>
+        <v>335038.20790575002</v>
+      </c>
+      <c r="P3" s="7">
+        <f>B49*L3</f>
+        <v>446462.67240574001</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>M3+O3+P3</f>
+        <v>802019.20568199106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.27747851400000001</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.27747851400000001</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7">
+        <v>800000</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
+        <v>2</v>
+      </c>
+      <c r="M4" s="7">
+        <f>B10*I4</f>
+        <v>34197.208950834989</v>
+      </c>
+      <c r="N4" s="7">
+        <f>B23*J4</f>
+        <v>44262.196305683996</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
+        <f>B49*L4</f>
+        <v>44646.267240574001</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>M4+N4+P4</f>
+        <v>123105.67249709298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="I5" s="7">
+        <v>127</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7">
+        <f>B10*I5</f>
+        <v>868609.1073512088</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8">
+        <f>M5</f>
+        <v>868609.1073512088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.54687465300000004</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.54687465300000004</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
+        <v>10</v>
+      </c>
+      <c r="L6" s="7">
+        <v>9</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <f>B36*K6</f>
+        <v>50005.702672500003</v>
+      </c>
+      <c r="P6" s="7">
+        <f>B49*L6</f>
+        <v>200908.20258258301</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>O6+P6</f>
+        <v>250913.90525508299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.49942301500000003</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.49942301500000003</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.5682840000000001E-3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.5682840000000001E-3</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27">
+        <f>SUM(B3:B9)</f>
+        <v>6839.4417901669985</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="27">
+        <f>SUM(E3:E9)</f>
+        <v>30769.571790167</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="39"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
+        <v>67</v>
+      </c>
+      <c r="L11" s="7">
+        <v>20</v>
+      </c>
+      <c r="M11" s="7">
+        <f>E10*I11</f>
+        <v>92308.715370500999</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <f>E36*K11</f>
+        <v>1495649.952559229</v>
+      </c>
+      <c r="P11" s="7">
+        <f>E49*L11</f>
+        <v>446462.67240574001</v>
+      </c>
+      <c r="Q11" s="8">
+        <f>M11+O11+P11</f>
+        <v>2034421.3403354699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
+        <v>800000</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7">
+        <v>14</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
+        <v>2</v>
+      </c>
+      <c r="M12" s="7">
+        <f>E10*I12</f>
+        <v>153847.85895083501</v>
+      </c>
+      <c r="N12" s="7">
+        <f>E23*J12</f>
+        <v>194273.73630568397</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7">
+        <f>E49*L12</f>
+        <v>44646.267240574001</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>M12+N12+P12</f>
+        <v>392767.86249709298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="I13" s="7">
+        <v>127</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
+        <f>E10*I13</f>
+        <v>3907735.6173512088</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8">
+        <f>M13</f>
+        <v>3907735.6173512088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="D14" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7">
+        <v>10</v>
+      </c>
+      <c r="L14" s="7">
+        <v>9</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <f>E36*K14</f>
+        <v>223231.33620287001</v>
+      </c>
+      <c r="P14" s="7">
+        <f>E49*L14</f>
+        <v>200908.20258258301</v>
+      </c>
+      <c r="Q14" s="8">
+        <f>O14+P14</f>
+        <v>424139.53878545301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3157.14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>13872.25</v>
+      </c>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.1118177299999998</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.1118177299999998</v>
+      </c>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.109998823</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.109998823</v>
+      </c>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.28784860099999998</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.28784860099999998</v>
+      </c>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.339551E-3</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.339551E-3</v>
+      </c>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="27">
+        <f>SUM(B16:B22)</f>
+        <v>3161.5854504059998</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="27">
+        <f>SUM(E16:E22)</f>
+        <v>13876.695450405998</v>
+      </c>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="D27" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4997.16</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>22319.78</v>
+      </c>
+      <c r="Q29" s="9"/>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.694648122</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.694648122</v>
+      </c>
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.385083701</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.32843673800000001</v>
+      </c>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.39363580799999998</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.39363580799999998</v>
+      </c>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2.4539179999999998E-3</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.4539179999999998E-3</v>
+      </c>
+      <c r="Q34" s="9"/>
+    </row>
+    <row r="35" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="Q35" s="9"/>
+    </row>
+    <row r="36" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="41">
+        <f>SUM(B29:B35)</f>
+        <v>5000.5702672500001</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="27">
+        <f>SUM(E29:E35)</f>
+        <v>22323.133620287001</v>
+      </c>
+      <c r="Q36" s="9"/>
+    </row>
+    <row r="38" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <f>B36*67</f>
+        <v>335038.20790575002</v>
+      </c>
+      <c r="Q38" s="9"/>
+    </row>
+    <row r="40" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="D40" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
+        <v>22319.78</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>22319.78</v>
+      </c>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.694648122</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.694648122</v>
+      </c>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.32843673800000001</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.32843673800000001</v>
+      </c>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.39363580799999998</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.39363580799999998</v>
+      </c>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2.4539179999999998E-3</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2.4539179999999998E-3</v>
+      </c>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="41">
+        <f>SUM(B42:B48)</f>
+        <v>22323.133620287001</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="27">
+        <f>SUM(E42:E48)</f>
+        <v>22323.133620287001</v>
+      </c>
+      <c r="Q49" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCD65F1-702F-2B4B-BF58-F41D5B429507}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="D26" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="2" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="2"/>
+    <col min="13" max="14" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="E1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>67</v>
+      </c>
+      <c r="J3" s="7">
+        <v>20</v>
+      </c>
+      <c r="K3" s="7">
+        <f>G3*B10</f>
+        <v>6431.2147830900003</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7">
+        <f>I3*B36</f>
+        <v>496894.71230768895</v>
+      </c>
+      <c r="N3" s="7">
+        <f>B49*J3</f>
+        <v>148326.77979333999</v>
+      </c>
+      <c r="O3" s="8">
+        <f>K3+M3+N3</f>
+        <v>651652.70688411896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1783.3371179999999</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7">
+        <v>800000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <f>B10*G4</f>
+        <v>10718.691305150001</v>
+      </c>
+      <c r="L4" s="7">
+        <f>B23*H4</f>
+        <v>177645.15602951602</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7">
+        <f>B49*J4</f>
+        <v>14832.677979333999</v>
+      </c>
+      <c r="O4" s="8">
+        <f>K4+L4+N4</f>
+        <v>203196.525314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15.654664349999999</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>127</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
+        <f>B10*G5</f>
+        <v>272254.75915081002</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8">
+        <f>K5</f>
+        <v>272254.75915081002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>32.926631960000002</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>10</v>
+      </c>
+      <c r="J6" s="7">
+        <v>9</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7">
+        <f>B36*I6</f>
+        <v>74163.389896669993</v>
+      </c>
+      <c r="N6" s="7">
+        <f>B49*J6</f>
+        <v>66747.050907002995</v>
+      </c>
+      <c r="O6" s="8">
+        <f>M6+N6</f>
+        <v>140910.440803673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>277.7569651</v>
+      </c>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.83687164000000003</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>33.226009980000001</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(B3:B9)</f>
+        <v>2143.7382610300001</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12473.408600000001</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15.654664349999999</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6.7162504900000002</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>159.77569800000001</v>
+      </c>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.158493574</v>
+      </c>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>33.226009980000001</v>
+      </c>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="17">
+        <f>SUM(B16:B22)</f>
+        <v>12688.939716394001</v>
+      </c>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>7128.3728600000004</v>
+      </c>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>15.654664349999999</v>
+      </c>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>19.821441230000001</v>
+      </c>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>218.76633150000001</v>
+      </c>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.497682607</v>
+      </c>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2">
+        <v>33.226009980000001</v>
+      </c>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="17">
+        <f>SUM(B29:B35)</f>
+        <v>7416.3389896669996</v>
+      </c>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="40" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2">
+        <v>7128.3728600000004</v>
+      </c>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>15.654664349999999</v>
+      </c>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>19.821441230000001</v>
+      </c>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>218.76633150000001</v>
+      </c>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.497682607</v>
+      </c>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2">
+        <v>33.226009980000001</v>
+      </c>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="17">
+        <f>SUM(B42:B48)</f>
+        <v>7416.3389896669996</v>
+      </c>
+      <c r="O49" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD704017-C293-6A41-A602-235B528EE5B4}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="D32" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="2" customWidth="1"/>
+    <col min="7" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="E1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>67</v>
+      </c>
+      <c r="J3" s="7">
+        <v>20</v>
+      </c>
+      <c r="K3" s="7">
+        <f>G3*B10</f>
+        <v>296782888.63926005</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7">
+        <f>I3*B36</f>
+        <v>14419162694.636681</v>
+      </c>
+      <c r="N3" s="7">
+        <f>B49*J3</f>
+        <v>4304227670.0408001</v>
+      </c>
+      <c r="O3" s="8">
+        <f>K3+M3+N3</f>
+        <v>19020173253.316742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>20253601.640000001</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7">
+        <v>800000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <f>B10*G4</f>
+        <v>494638147.73210001</v>
+      </c>
+      <c r="L4" s="7">
+        <f>B23*H4</f>
+        <v>4640931923.4553795</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7">
+        <f>B49*J4</f>
+        <v>430422767.00408</v>
+      </c>
+      <c r="O4" s="8">
+        <f>K4+L4+N4</f>
+        <v>5565992838.1915588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>7701094.9929999998</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>127</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
+        <f>B10*G5</f>
+        <v>12563808952.395342</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8">
+        <f>K5</f>
+        <v>12563808952.395342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>15292951.199999999</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>10</v>
+      </c>
+      <c r="J6" s="7">
+        <v>9</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7">
+        <f>B36*I6</f>
+        <v>2152113835.0204</v>
+      </c>
+      <c r="N6" s="7">
+        <f>B49*J6</f>
+        <v>1936902451.5183599</v>
+      </c>
+      <c r="O6" s="8">
+        <f>M6+N6</f>
+        <v>4089016286.5387602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>36949013.689999998</v>
+      </c>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>47571.203419999998</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>18683396.82</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27">
+        <f>SUM(B3:B9)</f>
+        <v>98927629.546420008</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>280703930.5</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7">
+        <v>7701094.9929999998</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3114043.0980000002</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>21269740.34</v>
+      </c>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7">
+        <v>22931.63867</v>
+      </c>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="7">
+        <v>18683396.82</v>
+      </c>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="28">
+        <f>SUM(B16:B22)</f>
+        <v>331495137.38966995</v>
+      </c>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="7">
+        <v>150478766.09999999</v>
+      </c>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7">
+        <v>7701094.9929999998</v>
+      </c>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="7">
+        <v>9203497.148</v>
+      </c>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7">
+        <v>29109377.02</v>
+      </c>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="7">
+        <v>35251.421040000001</v>
+      </c>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7">
+        <v>18683396.82</v>
+      </c>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="28">
+        <f>SUM(B29:B35)</f>
+        <v>215211383.50204</v>
+      </c>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="40" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="7">
+        <v>150478766.09999999</v>
+      </c>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="7">
+        <v>7701094.9929999998</v>
+      </c>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="7">
+        <v>9203497.148</v>
+      </c>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="7">
+        <v>29109377.02</v>
+      </c>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="7">
+        <v>35251.421040000001</v>
+      </c>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="7">
+        <v>18683396.82</v>
+      </c>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="28">
+        <f>SUM(B42:B48)</f>
+        <v>215211383.50204</v>
+      </c>
+      <c r="O49" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155E3A6C-6937-CF4F-86E2-086E04CF37A1}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="2" customWidth="1"/>
+    <col min="7" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>67</v>
+      </c>
+      <c r="J3" s="7">
+        <v>20</v>
+      </c>
+      <c r="K3" s="7">
+        <f>G3*B10</f>
+        <v>22.538475633000001</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7">
+        <f>I3*B36</f>
+        <v>1022.2387851669999</v>
+      </c>
+      <c r="N3" s="7">
+        <f>B49*J3</f>
+        <v>305.14590601999998</v>
+      </c>
+      <c r="O3" s="8">
+        <f>K3+M3+N3</f>
+        <v>1349.92316682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.51530806</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7">
+        <v>800000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <f>B10*G4</f>
+        <v>37.564126055000003</v>
+      </c>
+      <c r="L4" s="7">
+        <f>B23*H4</f>
+        <v>322.02471547400006</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7">
+        <f>B49*J4</f>
+        <v>30.514590601999998</v>
+      </c>
+      <c r="O4" s="8">
+        <f>K4+L4+N4</f>
+        <v>390.10343213100009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.486234151</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>127</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
+        <f>B10*G5</f>
+        <v>954.12880179700005</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8">
+        <f>K5</f>
+        <v>954.12880179700005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.3787279640000001</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>10</v>
+      </c>
+      <c r="J6" s="7">
+        <v>9</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7">
+        <f>B36*I6</f>
+        <v>152.57295300999999</v>
+      </c>
+      <c r="N6" s="7">
+        <f>B49*J6</f>
+        <v>137.31565770899999</v>
+      </c>
+      <c r="O6" s="8">
+        <f>M6+N6</f>
+        <v>289.88861071899998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.431926984</v>
+      </c>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4.7666840000000002E-3</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.6958613680000001</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(B3:B9)</f>
+        <v>7.512825211</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>19.136126900000001</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.486234151</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.28140976000000001</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.399552839</v>
+      </c>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.580373E-3</v>
+      </c>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.6958613680000001</v>
+      </c>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="17">
+        <f>SUM(B16:B22)</f>
+        <v>23.001765391000003</v>
+      </c>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>10.32571748</v>
+      </c>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.486234151</v>
+      </c>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.83006886199999996</v>
+      </c>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.915739911</v>
+      </c>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3.673529E-3</v>
+      </c>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.6958613680000001</v>
+      </c>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="17">
+        <f>SUM(B29:B35)</f>
+        <v>15.257295300999999</v>
+      </c>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="40" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2">
+        <v>10.32571748</v>
+      </c>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.486234151</v>
+      </c>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.83006886199999996</v>
+      </c>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1.915739911</v>
+      </c>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3.673529E-3</v>
+      </c>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.6958613680000001</v>
+      </c>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="21">
+        <f>SUM(B42:B48)</f>
+        <v>15.257295300999999</v>
+      </c>
+      <c r="O49" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/validation/Total rocket emissions.xlsx
+++ b/validation/Total rocket emissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F134BE2A-C069-004A-BA98-AE8D6E277A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C803A0EF-1F8B-4677-9B64-2673B28E2648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59280" yWindow="3720" windowWidth="37840" windowHeight="24180" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Climate change" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -410,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -486,10 +484,12 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -812,31 +812,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E160F6F2-9C9B-1B42-B2C8-1D2D657E43F0}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="16" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="1"/>
+    <col min="4" max="4" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" style="1"/>
+    <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.796875" style="1"/>
+    <col min="13" max="13" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.796875" style="1"/>
+    <col min="15" max="16" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
@@ -871,7 +872,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -916,11 +917,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="43">
         <v>4113533.9070000001</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -971,11 +972,11 @@
         <v>51.597581012753309</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="43">
         <v>4113533.9070000001</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1026,11 +1027,11 @@
         <v>45.543699141223215</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="43">
         <v>1616263.557</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1071,11 +1072,11 @@
         <v>34.728097910938011</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="43">
         <v>4744753.3389999997</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1121,11 +1122,11 @@
         <v>3.4760185811305688</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="43">
         <v>5594990.9170000004</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1136,11 +1137,11 @@
       </c>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="43">
         <v>17220.724910000001</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1151,11 +1152,11 @@
       </c>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="43">
         <v>5666556.7419999996</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1192,11 +1193,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="5">
         <f>SUM(B3:B9)</f>
         <v>25866853.093909997</v>
       </c>
@@ -1237,7 +1238,9 @@
       <c r="R10" s="26"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>101.36046078078171</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>68.290703769163471</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>65.090921405242895</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>9.0821143951892349</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1416,11 +1419,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>288655.10960000003</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1430,11 +1433,11 @@
         <v>12031437.189999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>44680412.979999997</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1444,11 +1447,11 @@
         <v>44680412.979999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>1616263.557</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1458,11 +1461,11 @@
         <v>1616263.557</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>968910.19940000004</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1472,11 +1475,11 @@
         <v>968910.19940000004</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>3223330.483</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1486,11 +1489,11 @@
         <v>3223330.483</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>4328.6038079999998</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1500,11 +1503,11 @@
         <v>4328.6038079999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>5666556.7419999996</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1514,11 +1517,11 @@
         <v>5666556.7419999996</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="5">
         <f>SUM(B16:B22)</f>
         <v>56448457.674807996</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>68191239.755208001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>13</v>
       </c>
@@ -1540,7 +1543,7 @@
       </c>
       <c r="E27" s="29"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>19380198.059999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>24396973.440000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>1616263.557</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>2856831.7689999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -1623,8 +1626,9 @@
       <c r="E33" s="1">
         <v>4409160.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I33" s="44"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -1637,8 +1641,9 @@
       <c r="E34" s="1">
         <v>10774.664360000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I34" s="44"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -1652,11 +1657,11 @@
         <v>5666556.7419999996</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="5">
         <f>SUM(B29:B35)</f>
         <v>41157655.380360007</v>
       </c>
@@ -1668,13 +1673,13 @@
         <v>58336758.932360001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <f>B36*67</f>
         <v>2757562910.4841204</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>15</v>
       </c>
@@ -1684,7 +1689,7 @@
       </c>
       <c r="E40" s="29"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -1712,7 +1717,7 @@
         <v>107643343.2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -1726,7 +1731,7 @@
         <v>11018755.48</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -1740,7 +1745,7 @@
         <v>1616263.557</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +1759,7 @@
         <v>4793267.4800000004</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -1768,7 +1773,7 @@
         <v>8984275.3359999992</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -1782,7 +1787,7 @@
         <v>11043.186820000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -1796,11 +1801,11 @@
         <v>5666556.7419999996</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="5">
         <f>SUM(B42:B48)</f>
         <v>32557978.58182</v>
       </c>
@@ -1848,25 +1853,25 @@
       <selection activeCell="Q1" sqref="Q1:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="16" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="1"/>
+    <col min="4" max="4" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" style="1"/>
+    <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" style="1" customWidth="1"/>
+    <col min="9" max="12" width="10.796875" style="1"/>
+    <col min="13" max="13" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.796875" style="1"/>
+    <col min="15" max="16" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
@@ -1897,7 +1902,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1938,7 +1943,7 @@
       </c>
       <c r="Q2" s="25"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1985,7 +1990,7 @@
         <v>802019.20568199106</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2032,7 +2037,7 @@
         <v>123105.67249709298</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>868609.1073512088</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -2111,7 +2116,7 @@
         <v>250913.90525508299</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2125,7 +2130,7 @@
         <v>0.49942301500000003</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2139,7 +2144,7 @@
         <v>3.5682840000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2174,7 +2179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2217,7 +2222,7 @@
       </c>
       <c r="Q10" s="24"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2252,7 +2257,7 @@
         <v>2034421.3403354699</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2287,7 +2292,7 @@
         <v>392767.86249709298</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2312,7 +2317,7 @@
         <v>3907735.6173512088</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>34</v>
       </c>
@@ -2350,7 +2355,7 @@
         <v>424139.53878545301</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -2364,7 +2369,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -2378,7 +2383,7 @@
         <v>13872.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -2392,7 +2397,7 @@
         <v>3.1118177299999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -2406,7 +2411,7 @@
         <v>0.156575296</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>0.109998823</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>0.28784860099999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -2448,7 +2453,7 @@
         <v>1.339551E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -2462,7 +2467,7 @@
         <v>0.77787040500000004</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2483,7 @@
         <v>13876.695450405998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>36</v>
       </c>
@@ -2488,7 +2493,7 @@
       </c>
       <c r="E27" s="29"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2507,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -2516,7 +2521,7 @@
         <v>22319.78</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -2530,7 +2535,7 @@
         <v>1.694648122</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -2544,7 +2549,7 @@
         <v>0.156575296</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -2558,7 +2563,7 @@
         <v>0.32843673800000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -2572,7 +2577,7 @@
         <v>0.39363580799999998</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>2.4539179999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -2600,7 +2605,7 @@
         <v>0.77787040500000004</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -2616,13 +2621,13 @@
         <v>22323.133620287001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <f>B36*67</f>
         <v>335038.20790575002</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>38</v>
       </c>
@@ -2632,7 +2637,7 @@
       </c>
       <c r="E40" s="29"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -2646,7 +2651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -2660,7 +2665,7 @@
         <v>22319.78</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -2674,7 +2679,7 @@
         <v>1.694648122</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -2688,7 +2693,7 @@
         <v>0.156575296</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2702,7 +2707,7 @@
         <v>0.32843673800000001</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -2716,7 +2721,7 @@
         <v>0.39363580799999998</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>2.4539179999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -2744,7 +2749,7 @@
         <v>0.77787040500000004</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2793,22 +2798,22 @@
       <selection activeCell="O9" sqref="O9:O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="14" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.796875" style="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="10.796875" style="1"/>
+    <col min="11" max="11" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" style="1"/>
+    <col min="13" max="14" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
@@ -2835,7 +2840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2870,7 +2875,7 @@
       </c>
       <c r="O2" s="34"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2911,7 +2916,7 @@
         <v>651652.70688411896</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2952,7 +2957,7 @@
         <v>203196.525314</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2983,7 +2988,7 @@
         <v>272254.75915081002</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3019,7 +3024,7 @@
         <v>140910.440803673</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3027,7 +3032,7 @@
         <v>277.7569651</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3036,7 +3041,7 @@
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -3055,7 +3060,7 @@
       <c r="N9" s="36"/>
       <c r="O9" s="37"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3075,23 +3080,23 @@
       <c r="N10" s="8"/>
       <c r="O10" s="37"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="33"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -3100,7 +3105,7 @@
       </c>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -3109,7 +3114,7 @@
       </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -3118,7 +3123,7 @@
       </c>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -3127,7 +3132,7 @@
       </c>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -3136,7 +3141,7 @@
       </c>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -3144,7 +3149,7 @@
         <v>159.77569800000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -3152,7 +3157,7 @@
         <v>0.158493574</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -3160,7 +3165,7 @@
         <v>33.226009980000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -3169,13 +3174,13 @@
         <v>12688.939716394001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="33"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -3183,7 +3188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -3191,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -3199,7 +3204,7 @@
         <v>7128.3728600000004</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -3207,7 +3212,7 @@
         <v>15.654664349999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -3215,7 +3220,7 @@
         <v>19.821441230000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -3223,7 +3228,7 @@
         <v>218.76633150000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -3231,7 +3236,7 @@
         <v>0.497682607</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -3239,7 +3244,7 @@
         <v>33.226009980000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3248,13 +3253,13 @@
         <v>7416.3389896669996</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="33"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -3262,7 +3267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -3270,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -3278,7 +3283,7 @@
         <v>7128.3728600000004</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -3286,7 +3291,7 @@
         <v>15.654664349999999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -3294,7 +3299,7 @@
         <v>19.821441230000001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -3302,7 +3307,7 @@
         <v>218.76633150000001</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -3310,7 +3315,7 @@
         <v>0.497682607</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -3318,7 +3323,7 @@
         <v>33.226009980000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3356,23 +3361,23 @@
       <selection activeCell="O1" sqref="O1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.796875" style="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
     <col min="7" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
@@ -3399,7 +3404,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3434,7 +3439,7 @@
       </c>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3475,7 +3480,7 @@
         <v>19020173253.316742</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3516,7 +3521,7 @@
         <v>5565992838.1915588</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3547,7 +3552,7 @@
         <v>12563808952.395342</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3583,7 +3588,7 @@
         <v>4089016286.5387602</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3591,7 +3596,7 @@
         <v>36949013.689999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3600,7 +3605,7 @@
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -3619,7 +3624,7 @@
       <c r="N9" s="36"/>
       <c r="O9" s="37"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3639,23 +3644,23 @@
       <c r="N10" s="8"/>
       <c r="O10" s="37"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="39"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -3664,7 +3669,7 @@
       </c>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -3673,7 +3678,7 @@
       </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -3682,7 +3687,7 @@
       </c>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -3691,7 +3696,7 @@
       </c>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -3700,7 +3705,7 @@
       </c>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -3708,7 +3713,7 @@
         <v>21269740.34</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -3716,7 +3721,7 @@
         <v>22931.63867</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -3724,7 +3729,7 @@
         <v>18683396.82</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -3733,13 +3738,13 @@
         <v>331495137.38966995</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="39"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -3747,7 +3752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -3755,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -3763,7 +3768,7 @@
         <v>150478766.09999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -3771,7 +3776,7 @@
         <v>7701094.9929999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -3779,7 +3784,7 @@
         <v>9203497.148</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -3787,7 +3792,7 @@
         <v>29109377.02</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -3795,7 +3800,7 @@
         <v>35251.421040000001</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -3803,7 +3808,7 @@
         <v>18683396.82</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3812,13 +3817,13 @@
         <v>215211383.50204</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="39"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -3826,7 +3831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -3834,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -3842,7 +3847,7 @@
         <v>150478766.09999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -3850,7 +3855,7 @@
         <v>7701094.9929999998</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -3858,7 +3863,7 @@
         <v>9203497.148</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -3866,7 +3871,7 @@
         <v>29109377.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -3874,7 +3879,7 @@
         <v>35251.421040000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -3882,7 +3887,7 @@
         <v>18683396.82</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3920,23 +3925,23 @@
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.796875" style="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
     <col min="7" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>50</v>
       </c>
@@ -3944,7 +3949,7 @@
       <c r="E1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="42" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="40" t="s">
@@ -3959,11 +3964,11 @@
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
       <c r="N1" s="40"/>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +3976,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
@@ -3996,9 +4001,9 @@
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="42"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -4039,7 +4044,7 @@
         <v>1349.92316682</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -4080,7 +4085,7 @@
         <v>390.10343213100009</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -4111,7 +4116,7 @@
         <v>954.12880179700005</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -4147,7 +4152,7 @@
         <v>289.88861071899998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -4155,7 +4160,7 @@
         <v>2.431926984</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4164,7 +4169,7 @@
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4183,7 +4188,7 @@
       <c r="N9" s="36"/>
       <c r="O9" s="37"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -4203,23 +4208,23 @@
       <c r="N10" s="8"/>
       <c r="O10" s="37"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="40"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -4228,7 +4233,7 @@
       </c>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -4237,7 +4242,7 @@
       </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -4246,7 +4251,7 @@
       </c>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -4255,7 +4260,7 @@
       </c>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -4264,7 +4269,7 @@
       </c>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -4272,7 +4277,7 @@
         <v>1.399552839</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -4280,7 +4285,7 @@
         <v>2.580373E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -4288,7 +4293,7 @@
         <v>1.6958613680000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -4297,13 +4302,13 @@
         <v>23.001765391000003</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="40"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -4311,7 +4316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -4319,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -4327,7 +4332,7 @@
         <v>10.32571748</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -4335,7 +4340,7 @@
         <v>0.486234151</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -4343,7 +4348,7 @@
         <v>0.83006886199999996</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -4351,7 +4356,7 @@
         <v>1.915739911</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -4359,7 +4364,7 @@
         <v>3.673529E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -4367,7 +4372,7 @@
         <v>1.6958613680000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -4376,13 +4381,13 @@
         <v>15.257295300999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="40"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -4390,7 +4395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -4398,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -4406,7 +4411,7 @@
         <v>10.32571748</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -4414,7 +4419,7 @@
         <v>0.486234151</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -4422,7 +4427,7 @@
         <v>0.83006886199999996</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -4430,7 +4435,7 @@
         <v>1.915739911</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -4438,7 +4443,7 @@
         <v>3.673529E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -4446,7 +4451,7 @@
         <v>1.6958613680000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>

--- a/validation/Total rocket emissions.xlsx
+++ b/validation/Total rocket emissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C803A0EF-1F8B-4677-9B64-2673B28E2648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995D79B1-B19A-EB46-B227-0597977C87BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
+    <workbookView xWindow="69620" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Climate change" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -233,13 +235,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000"/>
     <numFmt numFmtId="168" formatCode="0.000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -408,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -430,6 +434,9 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,8 +495,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -812,67 +817,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E160F6F2-9C9B-1B42-B2C8-1D2D657E43F0}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:I34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" style="1"/>
-    <col min="4" max="4" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" style="1"/>
-    <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.796875" style="1"/>
-    <col min="13" max="13" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.796875" style="1"/>
-    <col min="15" max="16" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="16" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="34"/>
+      <c r="G1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="25" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="29" t="s">
         <v>61</v>
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -885,8 +889,8 @@
       <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
@@ -911,17 +915,17 @@
       <c r="P2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="26"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
       <c r="S2" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="4">
         <v>4113533.9070000001</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -972,11 +976,11 @@
         <v>51.597581012753309</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="4">
         <v>4113533.9070000001</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1027,11 +1031,11 @@
         <v>45.543699141223215</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="4">
         <v>1616263.557</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1072,11 +1076,11 @@
         <v>34.728097910938011</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="4">
         <v>4744753.3389999997</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1122,11 +1126,11 @@
         <v>3.4760185811305688</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="4">
         <v>5594990.9170000004</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1137,11 +1141,11 @@
       </c>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="4">
         <v>17220.724910000001</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1152,11 +1156,11 @@
       </c>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="4">
         <v>5666556.7419999996</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1168,36 +1172,36 @@
       <c r="G9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="23" t="s">
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="20">
         <f>SUM(B3:B9)</f>
         <v>25866853.093909997</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>48482278.126910001</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="22"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
@@ -1234,13 +1238,11 @@
       <c r="P10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="21"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="24"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1283,7 +1285,7 @@
         <v>101.36046078078171</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1326,7 +1328,7 @@
         <v>68.290703769163471</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1359,15 +1361,15 @@
         <v>65.090921405242895</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="B14" s="31"/>
+      <c r="D14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="32"/>
       <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1405,7 +1407,7 @@
         <v>9.0821143951892349</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1419,11 +1421,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="1">
         <v>288655.10960000003</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1433,11 +1435,11 @@
         <v>12031437.189999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="1">
         <v>44680412.979999997</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1447,11 +1449,11 @@
         <v>44680412.979999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="1">
         <v>1616263.557</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1461,11 +1463,11 @@
         <v>1616263.557</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="1">
         <v>968910.19940000004</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1475,11 +1477,11 @@
         <v>968910.19940000004</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="1">
         <v>3223330.483</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1489,11 +1491,11 @@
         <v>3223330.483</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="1">
         <v>4328.6038079999998</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1503,11 +1505,11 @@
         <v>4328.6038079999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="1">
         <v>5666556.7419999996</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1517,11 +1519,11 @@
         <v>5666556.7419999996</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="20">
         <f>SUM(B16:B22)</f>
         <v>56448457.674807996</v>
       </c>
@@ -1533,17 +1535,17 @@
         <v>68191239.755208001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="D27" s="29" t="s">
+      <c r="B27" s="31"/>
+      <c r="D27" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -1571,7 +1573,7 @@
         <v>19380198.059999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -1585,7 +1587,7 @@
         <v>24396973.440000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>1616263.557</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>2856831.7689999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -1626,9 +1628,8 @@
       <c r="E33" s="1">
         <v>4409160.7</v>
       </c>
-      <c r="I33" s="44"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -1641,9 +1642,8 @@
       <c r="E34" s="1">
         <v>10774.664360000001</v>
       </c>
-      <c r="I34" s="44"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -1657,11 +1657,11 @@
         <v>5666556.7419999996</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="20">
         <f>SUM(B29:B35)</f>
         <v>41157655.380360007</v>
       </c>
@@ -1673,23 +1673,17 @@
         <v>58336758.932360001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
-        <f>B36*67</f>
-        <v>2757562910.4841204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="D40" s="29" t="s">
+      <c r="B40" s="31"/>
+      <c r="D40" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="29"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E40" s="32"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -1703,11 +1697,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="4">
         <v>467816.8</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -1717,11 +1711,11 @@
         <v>107643343.2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="4">
         <v>11018755.48</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -1731,11 +1725,11 @@
         <v>11018755.48</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="4">
         <v>1616263.557</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -1745,11 +1739,11 @@
         <v>1616263.557</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="4">
         <v>4793267.4800000004</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -1759,11 +1753,11 @@
         <v>4793267.4800000004</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="4">
         <v>8984275.3359999992</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -1773,11 +1767,11 @@
         <v>8984275.3359999992</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="4">
         <v>11043.186820000001</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -1787,11 +1781,11 @@
         <v>11043.186820000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="4">
         <v>5666556.7419999996</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -1801,18 +1795,18 @@
         <v>5666556.7419999996</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="15">
         <f>SUM(B42:B48)</f>
         <v>32557978.58182</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="15">
         <f>SUM(E42:E48)</f>
         <v>139733504.98182002</v>
       </c>
@@ -1849,60 +1843,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559E036-65B0-4E46-95DA-9D9F88511943}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q2"/>
+    <sheetView topLeftCell="C1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" style="1"/>
-    <col min="4" max="4" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" style="1"/>
-    <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" style="1" customWidth="1"/>
-    <col min="9" max="12" width="10.796875" style="1"/>
-    <col min="13" max="13" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.796875" style="1"/>
-    <col min="15" max="16" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="16" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="35"/>
+      <c r="D1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="34"/>
+      <c r="G1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="25" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1915,8 +1909,8 @@
       <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
@@ -1941,9 +1935,9 @@
       <c r="P2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="25"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q2" s="28"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1979,18 +1973,18 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4">
         <f>K3*B36</f>
-        <v>335038.20790575002</v>
+        <v>335034.41255922744</v>
       </c>
       <c r="P3" s="4">
         <f>B49*L3</f>
-        <v>446462.67240574001</v>
+        <v>1734625.1858779639</v>
       </c>
       <c r="Q3" s="5">
         <f>M3+O3+P3</f>
-        <v>802019.20568199106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2090177.9238076922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2030,14 +2024,14 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4">
         <f>B49*L4</f>
-        <v>44646.267240574001</v>
+        <v>173462.5185877964</v>
       </c>
       <c r="Q4" s="5">
         <f>M4+N4+P4</f>
-        <v>123105.67249709298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>251921.92384431537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2074,7 +2068,7 @@
         <v>868609.1073512088</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -2105,18 +2099,18 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4">
         <f>B36*K6</f>
-        <v>50005.702672500003</v>
+        <v>50005.136202869762</v>
       </c>
       <c r="P6" s="4">
         <f>B49*L6</f>
-        <v>200908.20258258301</v>
+        <v>780581.33364508383</v>
       </c>
       <c r="Q6" s="5">
         <f>O6+P6</f>
-        <v>250913.90525508299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>830586.46984795365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2130,7 +2124,7 @@
         <v>0.49942301500000003</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2144,7 +2138,7 @@
         <v>3.5682840000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2160,26 +2154,26 @@
       <c r="G9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="23" t="s">
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2195,7 +2189,7 @@
         <v>30769.571790167</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="22"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
@@ -2220,9 +2214,9 @@
       <c r="P10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="24"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q10" s="27"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2250,14 +2244,14 @@
       </c>
       <c r="P11" s="4">
         <f>E49*L11</f>
-        <v>446462.67240574001</v>
+        <v>4221725.1858779639</v>
       </c>
       <c r="Q11" s="5">
         <f>M11+O11+P11</f>
-        <v>2034421.3403354699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5809683.8538076933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2285,14 +2279,14 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4">
         <f>E49*L12</f>
-        <v>44646.267240574001</v>
+        <v>422172.51858779642</v>
       </c>
       <c r="Q12" s="5">
         <f>M12+N12+P12</f>
-        <v>392767.86249709298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>770294.11384431541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2317,15 +2311,15 @@
         <v>3907735.6173512088</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="D14" s="29" t="s">
+      <c r="B14" s="35"/>
+      <c r="D14" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="32"/>
       <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
@@ -2348,14 +2342,14 @@
       </c>
       <c r="P14" s="4">
         <f>E49*L14</f>
-        <v>200908.20258258301</v>
+        <v>1899776.3336450839</v>
       </c>
       <c r="Q14" s="5">
         <f>O14+P14</f>
-        <v>424139.53878545301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2123007.6698479541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -2369,7 +2363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -2383,7 +2377,7 @@
         <v>13872.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -2397,7 +2391,7 @@
         <v>3.1118177299999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -2411,7 +2405,7 @@
         <v>0.156575296</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2425,7 +2419,7 @@
         <v>0.109998823</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2439,7 +2433,7 @@
         <v>0.28784860099999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -2453,7 +2447,7 @@
         <v>1.339551E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -2467,7 +2461,7 @@
         <v>0.77787040500000004</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -2483,17 +2477,17 @@
         <v>13876.695450405998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="D27" s="29" t="s">
+      <c r="B27" s="35"/>
+      <c r="D27" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -2507,7 +2501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -2521,7 +2515,7 @@
         <v>22319.78</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -2535,7 +2529,7 @@
         <v>1.694648122</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -2549,12 +2543,12 @@
         <v>0.156575296</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="1">
-        <v>0.385083701</v>
+        <v>0.32843673797657136</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>7</v>
@@ -2563,7 +2557,7 @@
         <v>0.32843673800000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -2577,7 +2571,7 @@
         <v>0.39363580799999998</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -2591,7 +2585,7 @@
         <v>2.4539179999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -2605,39 +2599,33 @@
         <v>0.77787040500000004</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="18">
         <f>SUM(B29:B35)</f>
-        <v>5000.5702672500001</v>
+        <v>5000.5136202869762</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="22">
         <f>SUM(E29:E35)</f>
         <v>22323.133620287001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
-        <f>B36*67</f>
-        <v>335038.20790575002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="D40" s="29" t="s">
+      <c r="B40" s="35"/>
+      <c r="D40" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="29"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="32"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -2651,118 +2639,118 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B42" s="1">
-        <v>22319.78</v>
+        <v>86728.6</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>22319.78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211083.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="1">
-        <v>1.694648122</v>
+        <v>0.74573505127734652</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="1">
-        <v>1.694648122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="21">
+        <v>0.74573505127734696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.156575296</v>
+        <v>0.15657529619262275</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="1">
-        <v>0.156575296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="21">
+        <v>0.15657529619262275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="1">
-        <v>0.32843673800000001</v>
+        <v>0.22329274937454158</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="1">
-        <v>0.32843673800000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="21">
+        <v>0.22329274937454158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="1">
-        <v>0.39363580799999998</v>
+        <v>0.75392759599629455</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="1">
-        <v>0.39363580799999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="21">
+        <v>0.75392759599629455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1">
-        <v>2.4539179999999998E-3</v>
+        <v>1.8928006407470293E-3</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="1">
-        <v>2.4539179999999998E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="21">
+        <v>1.8928006407470293E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="1">
-        <v>0.77787040500000004</v>
+        <v>0.7778704047126872</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="1">
-        <v>0.77787040500000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="21">
+        <v>0.7778704047126872</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="18">
         <f>SUM(B42:B48)</f>
-        <v>22323.133620287001</v>
+        <v>86731.259293898198</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="22">
         <f>SUM(E42:E48)</f>
-        <v>22323.133620287001</v>
+        <v>211086.25929389821</v>
       </c>
     </row>
   </sheetData>
@@ -2794,61 +2782,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCD65F1-702F-2B4B-BF58-F41D5B429507}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:O10"/>
+    <sheetView topLeftCell="A16" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.796875" style="1"/>
-    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.796875" style="1"/>
-    <col min="11" max="11" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.796875" style="1"/>
-    <col min="13" max="14" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="14" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="E1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="38"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="16" t="s">
         <v>19</v>
       </c>
@@ -2873,9 +2861,9 @@
       <c r="N2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2909,14 +2897,14 @@
       </c>
       <c r="N3" s="4">
         <f>B49*J3</f>
-        <v>148326.77979333999</v>
+        <v>66271.993884857482</v>
       </c>
       <c r="O3" s="5">
         <f>K3+M3+N3</f>
-        <v>651652.70688411896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>569597.92097563646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2950,14 +2938,14 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4">
         <f>B49*J4</f>
-        <v>14832.677979333999</v>
+        <v>6627.1993884857484</v>
       </c>
       <c r="O4" s="5">
         <f>K4+L4+N4</f>
-        <v>203196.525314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>194991.04672315175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2988,7 +2976,7 @@
         <v>272254.75915081002</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3017,14 +3005,14 @@
       </c>
       <c r="N6" s="4">
         <f>B49*J6</f>
-        <v>66747.050907002995</v>
+        <v>29822.397248185869</v>
       </c>
       <c r="O6" s="5">
         <f>M6+N6</f>
-        <v>140910.440803673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>103985.78714485586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3032,7 +3020,7 @@
         <v>277.7569651</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3041,7 +3029,7 @@
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -3049,18 +3037,18 @@
         <v>33.226009980000001</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3069,7 +3057,7 @@
         <v>2143.7382610300001</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="35"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -3078,25 +3066,25 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="37"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O10" s="40"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="36"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -3105,7 +3093,7 @@
       </c>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -3114,7 +3102,7 @@
       </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -3123,7 +3111,7 @@
       </c>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -3132,7 +3120,7 @@
       </c>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -3141,7 +3129,7 @@
       </c>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -3149,7 +3137,7 @@
         <v>159.77569800000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -3157,7 +3145,7 @@
         <v>0.158493574</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -3165,7 +3153,7 @@
         <v>33.226009980000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -3174,13 +3162,13 @@
         <v>12688.939716394001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="33"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="36"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -3188,7 +3176,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -3196,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -3204,7 +3192,7 @@
         <v>7128.3728600000004</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -3212,7 +3200,7 @@
         <v>15.654664349999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -3220,7 +3208,7 @@
         <v>19.821441230000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -3228,7 +3216,7 @@
         <v>218.76633150000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -3236,7 +3224,7 @@
         <v>0.497682607</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -3244,7 +3232,7 @@
         <v>33.226009980000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3253,13 +3241,13 @@
         <v>7416.3389896669996</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="33"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="36"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +3255,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -3275,61 +3263,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="1">
-        <v>7128.3728600000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="21">
+        <v>2719.7256868327318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="1">
-        <v>15.654664349999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="21">
+        <v>15.65466434602483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="1">
-        <v>19.821441230000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="21">
+        <v>34.596428111635966</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="1">
-        <v>218.76633150000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="21">
+        <v>510.20211806069682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="1">
-        <v>0.497682607</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="21">
+        <v>0.19478691182100277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="1">
-        <v>33.226009980000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="21">
+        <v>33.22600997996404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="9">
         <f>SUM(B42:B48)</f>
-        <v>7416.3389896669996</v>
+        <v>3313.5996942428742</v>
       </c>
     </row>
   </sheetData>
@@ -3358,61 +3346,61 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O2"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.796875" style="1"/>
-    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
     <col min="7" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.796875" style="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="E1" s="21" t="s">
+      <c r="B1" s="42"/>
+      <c r="E1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="25" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="13" t="s">
         <v>19</v>
       </c>
@@ -3437,9 +3425,9 @@
       <c r="N2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3469,18 +3457,18 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4">
         <f>I3*B36</f>
-        <v>14419162694.636681</v>
+        <v>11738359366.240864</v>
       </c>
       <c r="N3" s="4">
         <f>B49*J3</f>
-        <v>4304227670.0408001</v>
+        <v>3503987870.6179676</v>
       </c>
       <c r="O3" s="5">
         <f>K3+M3+N3</f>
-        <v>19020173253.316742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>15539130125.498091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3514,14 +3502,14 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4">
         <f>B49*J4</f>
-        <v>430422767.00408</v>
+        <v>350398787.06179678</v>
       </c>
       <c r="O4" s="5">
         <f>K4+L4+N4</f>
-        <v>5565992838.1915588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5485968858.2492762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3552,7 +3540,7 @@
         <v>12563808952.395342</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3577,18 +3565,18 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4">
         <f>B36*I6</f>
-        <v>2152113835.0204</v>
+        <v>1751993935.2598305</v>
       </c>
       <c r="N6" s="4">
         <f>B49*J6</f>
-        <v>1936902451.5183599</v>
+        <v>1576794541.7780855</v>
       </c>
       <c r="O6" s="5">
         <f>M6+N6</f>
-        <v>4089016286.5387602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3328788477.0379162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3596,7 +3584,7 @@
         <v>36949013.689999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3605,7 +3593,7 @@
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -3613,18 +3601,18 @@
         <v>18683396.82</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3633,7 +3621,7 @@
         <v>98927629.546420008</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="35"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -3642,25 +3630,25 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="37"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O10" s="40"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="42"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -3669,7 +3657,7 @@
       </c>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -3678,7 +3666,7 @@
       </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -3687,7 +3675,7 @@
       </c>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -3696,7 +3684,7 @@
       </c>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -3705,7 +3693,7 @@
       </c>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -3713,7 +3701,7 @@
         <v>21269740.34</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -3721,7 +3709,7 @@
         <v>22931.63867</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -3729,7 +3717,7 @@
         <v>18683396.82</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -3738,13 +3726,13 @@
         <v>331495137.38966995</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="39"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="42"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -3752,7 +3740,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -3760,70 +3748,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="4">
-        <v>150478766.09999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="21">
+        <v>69735037.475485206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="4">
-        <v>7701094.9929999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="21">
+        <v>7701094.9926574994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="4">
-        <v>9203497.148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="21">
+        <v>17124098.336521085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="4">
-        <v>29109377.02</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="21">
+        <v>61938424.028104655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="4">
-        <v>35251.421040000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="21">
+        <v>17341.877787438436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="4">
-        <v>18683396.82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="21">
+        <v>18683396.815427154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="23">
         <f>SUM(B29:B35)</f>
-        <v>215211383.50204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
+        <v>175199393.52598304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="39"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="42"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -3831,7 +3819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -3839,15 +3827,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="4">
-        <v>150478766.09999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69735037.475485206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -3855,31 +3843,31 @@
         <v>7701094.9929999998</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="4">
-        <v>9203497.148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>17124098.336521085</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="4">
-        <v>29109377.02</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="21">
+        <v>61938424.028104655</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="4">
-        <v>35251.421040000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17341.877787438436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -3887,13 +3875,13 @@
         <v>18683396.82</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="23">
         <f>SUM(B42:B48)</f>
-        <v>215211383.50204</v>
+        <v>175199393.53089839</v>
       </c>
     </row>
   </sheetData>
@@ -3921,62 +3909,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155E3A6C-6937-CF4F-86E2-086E04CF37A1}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView topLeftCell="A27" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.796875" style="1"/>
-    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
     <col min="7" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.796875" style="1"/>
+    <col min="11" max="11" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="E1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
@@ -4001,9 +3989,9 @@
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -4037,14 +4025,14 @@
       </c>
       <c r="N3" s="4">
         <f>B49*J3</f>
-        <v>305.14590601999998</v>
+        <v>249.40993996090901</v>
       </c>
       <c r="O3" s="5">
         <f>K3+M3+N3</f>
-        <v>1349.92316682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1294.187200760909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -4078,14 +4066,14 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4">
         <f>B49*J4</f>
-        <v>30.514590601999998</v>
+        <v>24.940993996090903</v>
       </c>
       <c r="O4" s="5">
         <f>K4+L4+N4</f>
-        <v>390.10343213100009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>384.52983552509102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -4116,7 +4104,7 @@
         <v>954.12880179700005</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -4145,14 +4133,14 @@
       </c>
       <c r="N6" s="4">
         <f>B49*J6</f>
-        <v>137.31565770899999</v>
+        <v>112.23447298240906</v>
       </c>
       <c r="O6" s="5">
         <f>M6+N6</f>
-        <v>289.88861071899998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>264.80742599240904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -4160,7 +4148,7 @@
         <v>2.431926984</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4169,7 +4157,7 @@
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4177,18 +4165,18 @@
         <v>1.6958613680000001</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -4197,7 +4185,7 @@
         <v>7.512825211</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="35"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -4206,25 +4194,25 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="37"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O10" s="40"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="43"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4221,7 @@
       </c>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -4242,7 +4230,7 @@
       </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -4251,7 +4239,7 @@
       </c>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -4260,7 +4248,7 @@
       </c>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -4269,7 +4257,7 @@
       </c>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -4277,7 +4265,7 @@
         <v>1.399552839</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -4285,7 +4273,7 @@
         <v>2.580373E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -4293,7 +4281,7 @@
         <v>1.6958613680000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -4302,13 +4290,13 @@
         <v>23.001765391000003</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="40"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="43"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -4316,7 +4304,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -4324,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -4332,7 +4320,7 @@
         <v>10.32571748</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -4340,7 +4328,7 @@
         <v>0.486234151</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -4348,7 +4336,7 @@
         <v>0.83006886199999996</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -4356,7 +4344,7 @@
         <v>1.915739911</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -4364,7 +4352,7 @@
         <v>3.673529E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -4372,7 +4360,7 @@
         <v>1.6958613680000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -4381,13 +4369,13 @@
         <v>15.257295300999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="40"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="43"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -4395,7 +4383,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -4403,61 +4391,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="1">
-        <v>10.32571748</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="21">
+        <v>4.5853853789451549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="1">
-        <v>0.486234151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="21">
+        <v>0.48623415113583118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="1">
-        <v>0.83006886199999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="21">
+        <v>1.520253794218255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="1">
-        <v>1.915739911</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="21">
+        <v>4.1811083796708388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="1">
-        <v>3.673529E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="21">
+        <v>1.6539262753034992E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="1">
-        <v>1.6958613680000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="21">
+        <v>1.6958613678000689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="12">
         <f>SUM(B42:B48)</f>
-        <v>15.257295300999999</v>
+        <v>12.470496998045451</v>
       </c>
     </row>
   </sheetData>

--- a/validation/Total rocket emissions.xlsx
+++ b/validation/Total rocket emissions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995D79B1-B19A-EB46-B227-0597977C87BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498634E9-6A5F-2740-81BB-DA5CA4CF7527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69620" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
+    <workbookView xWindow="41720" yWindow="1600" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Climate change" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -244,8 +244,9 @@
     <numFmt numFmtId="168" formatCode="0.000000000000"/>
     <numFmt numFmtId="169" formatCode="0.0000000000"/>
     <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,6 +275,12 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -412,7 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -437,6 +444,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,14 +826,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E160F6F2-9C9B-1B42-B2C8-1D2D657E43F0}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="D1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -842,36 +851,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="33"/>
+      <c r="D1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="36"/>
+      <c r="G1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="28" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="31" t="s">
         <v>61</v>
       </c>
       <c r="S1" s="3"/>
@@ -889,8 +898,8 @@
       <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
@@ -915,8 +924,8 @@
       <c r="P2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
       <c r="S2" s="13" t="s">
         <v>62</v>
       </c>
@@ -925,8 +934,8 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>4113533.9070000001</v>
+      <c r="B3" s="25">
+        <v>630466.13520000002</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>1</v>
@@ -952,7 +961,7 @@
       </c>
       <c r="M3" s="4">
         <f>I3*B10</f>
-        <v>77600559.281729996</v>
+        <v>67151355.966330007</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4">
@@ -965,15 +974,15 @@
       </c>
       <c r="Q3" s="5">
         <f>M3+O3+P3</f>
-        <v>3486323041.4022503</v>
+        <v>3475873838.0868502</v>
       </c>
       <c r="R3" s="19">
         <f>((Q3/1000)*185)/1000000</f>
-        <v>644.96976265941635</v>
+        <v>643.03666004606725</v>
       </c>
       <c r="S3" s="19">
         <f>((R3/H3)/5)*1000000</f>
-        <v>51.597581012753309</v>
+        <v>51.44293280368538</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1007,7 +1016,7 @@
       </c>
       <c r="M4" s="4">
         <f>B10*I4</f>
-        <v>129334265.46954998</v>
+        <v>111918926.61055</v>
       </c>
       <c r="N4" s="4">
         <f>B23*J4</f>
@@ -1020,15 +1029,15 @@
       </c>
       <c r="Q4" s="5">
         <f>M4+N4+P4</f>
-        <v>984728630.08050191</v>
+        <v>967313291.22150195</v>
       </c>
       <c r="R4" s="19">
         <f t="shared" ref="R4:R6" si="0">((Q4/1000)*185)/1000000</f>
-        <v>182.17479656489286</v>
+        <v>178.95295887597788</v>
       </c>
       <c r="S4" s="19">
         <f t="shared" ref="S4:S5" si="1">((R4/H4)/5)*1000000</f>
-        <v>45.543699141223215</v>
+        <v>44.738239718994471</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1058,22 +1067,22 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4">
         <f>B10*I5</f>
-        <v>3285090342.9265695</v>
+        <v>2842740735.90797</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="5">
         <f>M5</f>
-        <v>3285090342.9265695</v>
+        <v>2842740735.90797</v>
       </c>
       <c r="R5" s="19">
         <f t="shared" si="0"/>
-        <v>607.7417134414153</v>
+        <v>525.90703614297445</v>
       </c>
       <c r="S5" s="19">
         <f t="shared" si="1"/>
-        <v>34.728097910938011</v>
+        <v>30.051830636741396</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1172,28 +1181,28 @@
       <c r="G9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30" t="s">
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="26" t="s">
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="29" t="s">
+      <c r="R9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="26" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1201,9 +1210,9 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="15">
         <f>SUM(B3:B9)</f>
-        <v>25866853.093909997</v>
+        <v>22383785.322110001</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
@@ -1213,7 +1222,7 @@
         <v>48482278.126910001</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="25"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
@@ -1238,9 +1247,9 @@
       <c r="P10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="24"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="26"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G11" s="4" t="s">
@@ -1362,14 +1371,14 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="D14" s="32" t="s">
+      <c r="B14" s="33"/>
+      <c r="D14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="32"/>
+      <c r="E14" s="34"/>
       <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1536,14 +1545,14 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="D27" s="32" t="s">
+      <c r="B27" s="33"/>
+      <c r="D27" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="32"/>
+      <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -1661,7 +1670,7 @@
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="15">
         <f>SUM(B29:B35)</f>
         <v>41157655.380360007</v>
       </c>
@@ -1674,14 +1683,14 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="D40" s="32" t="s">
+      <c r="B40" s="33"/>
+      <c r="D40" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="32"/>
+      <c r="E40" s="34"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -1843,17 +1852,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559E036-65B0-4E46-95DA-9D9F88511943}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
@@ -1866,33 +1875,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="37"/>
+      <c r="D1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="36"/>
+      <c r="G1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="28" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1909,8 +1918,8 @@
       <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
@@ -1935,7 +1944,7 @@
       <c r="P2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="28"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -2154,22 +2163,22 @@
       <c r="G9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30" t="s">
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="26" t="s">
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2177,19 +2186,19 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="24">
         <f>SUM(B3:B9)</f>
         <v>6839.4417901669985</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="24">
         <f>SUM(E3:E9)</f>
         <v>30769.571790167</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="25"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
@@ -2214,7 +2223,7 @@
       <c r="P10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="27"/>
+      <c r="Q10" s="29"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G11" s="4" t="s">
@@ -2312,14 +2321,14 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="D14" s="32" t="s">
+      <c r="B14" s="37"/>
+      <c r="D14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="32"/>
+      <c r="E14" s="34"/>
       <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
@@ -2465,27 +2474,27 @@
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="24">
         <f>SUM(B16:B22)</f>
         <v>3161.5854504059998</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="24">
         <f>SUM(E16:E22)</f>
         <v>13876.695450405998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="D27" s="32" t="s">
+      <c r="B27" s="37"/>
+      <c r="D27" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="32"/>
+      <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -2616,14 +2625,14 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="D40" s="32" t="s">
+      <c r="B40" s="37"/>
+      <c r="D40" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="32"/>
+      <c r="E40" s="34"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -2802,29 +2811,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="37" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2835,8 +2844,8 @@
       <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="16" t="s">
         <v>19</v>
       </c>
@@ -2861,7 +2870,7 @@
       <c r="N2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="37"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3037,16 +3046,16 @@
         <v>33.226009980000001</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="42"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -3057,7 +3066,7 @@
         <v>2143.7382610300001</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -3066,7 +3075,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="40"/>
+      <c r="O10" s="42"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O11" s="10"/>
@@ -3078,10 +3087,10 @@
       <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="38"/>
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3163,10 +3172,10 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="38"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -3242,10 +3251,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="36"/>
+      <c r="B40" s="38"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -3366,29 +3375,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="44"/>
+      <c r="E1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="28" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="30" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3399,8 +3408,8 @@
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="13" t="s">
         <v>19</v>
       </c>
@@ -3425,7 +3434,7 @@
       <c r="N2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="28"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3601,16 +3610,16 @@
         <v>18683396.82</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="42"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -3621,7 +3630,7 @@
         <v>98927629.546420008</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -3630,7 +3639,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="40"/>
+      <c r="O10" s="42"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O11" s="10"/>
@@ -3642,10 +3651,10 @@
       <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="44"/>
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3727,10 +3736,10 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="44"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -3806,10 +3815,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="42"/>
+      <c r="B40" s="44"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -3930,29 +3939,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="E1" s="43" t="s">
+      <c r="B1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3963,8 +3972,8 @@
       <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
@@ -3989,7 +3998,7 @@
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -4165,16 +4174,16 @@
         <v>1.6958613680000001</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="42"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -4185,7 +4194,7 @@
         <v>7.512825211</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -4194,7 +4203,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="40"/>
+      <c r="O10" s="42"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O11" s="10"/>
@@ -4206,10 +4215,10 @@
       <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="45"/>
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -4291,10 +4300,10 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="45"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -4370,10 +4379,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="43"/>
+      <c r="B40" s="45"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">

--- a/validation/Total rocket emissions.xlsx
+++ b/validation/Total rocket emissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498634E9-6A5F-2740-81BB-DA5CA4CF7527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791CE81C-16C5-490E-8C9F-FF1691C28EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41720" yWindow="1600" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Climate change" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="64">
   <si>
     <t>Category</t>
   </si>
@@ -229,13 +227,16 @@
   </si>
   <si>
     <t>Annual per Subscriber Costs (USD$)</t>
+  </si>
+  <si>
+    <t>NF Global</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -245,8 +246,9 @@
     <numFmt numFmtId="169" formatCode="0.0000000000"/>
     <numFmt numFmtId="170" formatCode="0.000000"/>
     <numFmt numFmtId="171" formatCode="0.000000000"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,7 +282,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -415,11 +416,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -445,8 +447,19 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -463,18 +476,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,17 +498,22 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,66 +832,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E160F6F2-9C9B-1B42-B2C8-1D2D657E43F0}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="16" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="1"/>
+    <col min="4" max="4" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" style="1"/>
+    <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" style="1" customWidth="1"/>
+    <col min="9" max="12" width="10.796875" style="1"/>
+    <col min="13" max="13" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.796875" style="1"/>
+    <col min="15" max="16" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="26"/>
+      <c r="D1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="29"/>
+      <c r="G1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="30" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="34" t="s">
         <v>61</v>
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -898,8 +904,8 @@
       <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
@@ -924,17 +930,17 @@
       <c r="P2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
       <c r="S2" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="50">
         <v>630466.13520000002</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -985,11 +991,11 @@
         <v>51.44293280368538</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="49">
         <v>4113533.9070000001</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1040,11 +1046,11 @@
         <v>44.738239718994471</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="49">
         <v>1616263.557</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1085,11 +1091,11 @@
         <v>30.051830636741396</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="49">
         <v>4744753.3389999997</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1135,11 +1141,11 @@
         <v>3.4760185811305688</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="49">
         <v>5594990.9170000004</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1150,11 +1156,11 @@
       </c>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="49">
         <v>17220.724910000001</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1165,11 +1171,11 @@
       </c>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="49">
         <v>5666556.7419999996</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1181,48 +1187,48 @@
       <c r="G9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="28" t="s">
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="31" t="s">
+      <c r="R9" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="S9" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="5">
         <f>SUM(B3:B9)</f>
         <v>22383785.322110001</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="5">
         <f>SUM(E3:E9)</f>
         <v>48482278.126910001</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="27"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
@@ -1247,11 +1253,11 @@
       <c r="P10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="26"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q10" s="32"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>101.36046078078171</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>68.290703769163471</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1370,15 +1376,15 @@
         <v>65.090921405242895</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:19">
+      <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="D14" s="34" t="s">
+      <c r="B14" s="26"/>
+      <c r="D14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="27"/>
       <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1416,7 +1422,7 @@
         <v>9.0821143951892349</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>12031437.189999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1464,7 @@
         <v>44680412.979999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>1616263.557</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>968910.19940000004</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>3223330.483</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>4328.6038079999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>5666556.7419999996</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1544,17 +1550,17 @@
         <v>68191239.755208001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="D27" s="34" t="s">
+      <c r="B27" s="26"/>
+      <c r="D27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="34"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>19380198.059999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>24396973.440000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>1616263.557</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>2856831.7689999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>4409160.7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>10774.664360000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>5666556.7419999996</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -1682,17 +1688,17 @@
         <v>58336758.932360001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="D40" s="34" t="s">
+      <c r="B40" s="26"/>
+      <c r="D40" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="34"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="27"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>107643343.2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>11018755.48</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>1616263.557</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>4793267.4800000004</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>8984275.3359999992</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>11043.186820000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>5666556.7419999996</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1822,15 +1828,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="Q9:Q10"/>
@@ -1842,70 +1839,81 @@
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="M9:P9"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559E036-65B0-4E46-95DA-9D9F88511943}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="1"/>
+    <col min="4" max="4" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="16" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.796875" style="1"/>
+    <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" style="1" customWidth="1"/>
+    <col min="9" max="12" width="10.796875" style="1"/>
+    <col min="13" max="13" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.796875" style="1"/>
+    <col min="15" max="16" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.796875" style="1"/>
+    <col min="19" max="19" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="36"/>
+      <c r="D1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="29"/>
+      <c r="G1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="30" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1918,8 +1926,8 @@
       <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
@@ -1944,9 +1952,12 @@
       <c r="P2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="30"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q2" s="33"/>
+      <c r="S2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1992,8 +2003,15 @@
         <f>M3+O3+P3</f>
         <v>2090177.9238076922</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S3" s="47">
+        <v>161000000</v>
+      </c>
+      <c r="T3" s="48">
+        <f>Q3/S3</f>
+        <v>1.2982471576445293E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2039,8 +2057,15 @@
         <f>M4+N4+P4</f>
         <v>251921.92384431537</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S4" s="47">
+        <v>161000000</v>
+      </c>
+      <c r="T4" s="48">
+        <f t="shared" ref="T4:T6" si="0">Q4/S4</f>
+        <v>1.5647324462379837E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2076,8 +2101,15 @@
         <f>M5</f>
         <v>868609.1073512088</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S5" s="47">
+        <v>161000000</v>
+      </c>
+      <c r="T5" s="48">
+        <f t="shared" si="0"/>
+        <v>5.3950876232994336E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -2118,8 +2150,15 @@
         <f>O6+P6</f>
         <v>830586.46984795365</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S6" s="47">
+        <v>161000000</v>
+      </c>
+      <c r="T6" s="48">
+        <f t="shared" si="0"/>
+        <v>5.1589221729686566E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2133,7 +2172,7 @@
         <v>0.49942301500000003</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +2186,7 @@
         <v>3.5682840000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2163,26 +2202,26 @@
       <c r="G9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="28" t="s">
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2198,7 +2237,7 @@
         <v>30769.571790167</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="27"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
@@ -2223,9 +2262,9 @@
       <c r="P10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="29"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="32"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2260,7 +2299,7 @@
         <v>5809683.8538076933</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2295,7 +2334,7 @@
         <v>770294.11384431541</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2320,15 +2359,15 @@
         <v>3907735.6173512088</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:20">
+      <c r="A14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="D14" s="34" t="s">
+      <c r="B14" s="36"/>
+      <c r="D14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="27"/>
       <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
@@ -2358,7 +2397,7 @@
         <v>2123007.6698479541</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -2372,7 +2411,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -2386,7 +2425,7 @@
         <v>13872.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -2400,7 +2439,7 @@
         <v>3.1118177299999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -2414,7 +2453,7 @@
         <v>0.156575296</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2428,7 +2467,7 @@
         <v>0.109998823</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2442,7 +2481,7 @@
         <v>0.28784860099999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -2456,7 +2495,7 @@
         <v>1.339551E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -2470,7 +2509,7 @@
         <v>0.77787040500000004</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -2486,17 +2525,17 @@
         <v>13876.695450405998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="D27" s="34" t="s">
+      <c r="B27" s="36"/>
+      <c r="D27" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="34"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2549,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -2524,7 +2563,7 @@
         <v>22319.78</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -2538,7 +2577,7 @@
         <v>1.694648122</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -2552,7 +2591,7 @@
         <v>0.156575296</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -2566,7 +2605,7 @@
         <v>0.32843673800000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -2580,7 +2619,7 @@
         <v>0.39363580799999998</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -2594,7 +2633,7 @@
         <v>2.4539179999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -2608,7 +2647,7 @@
         <v>0.77787040500000004</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -2624,17 +2663,17 @@
         <v>22323.133620287001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="D40" s="34" t="s">
+      <c r="B40" s="36"/>
+      <c r="D40" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="34"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="27"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +2687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -2662,7 +2701,7 @@
         <v>211083.6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -2676,7 +2715,7 @@
         <v>0.74573505127734696</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -2690,7 +2729,7 @@
         <v>0.15657529619262275</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2704,7 +2743,7 @@
         <v>0.22329274937454158</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -2718,7 +2757,7 @@
         <v>0.75392759599629455</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -2732,7 +2771,7 @@
         <v>1.8928006407470293E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -2746,7 +2785,7 @@
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2764,23 +2803,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="M9:P9"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="M1:P1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2795,57 +2834,57 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="14" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.796875" style="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="10.796875" style="1"/>
+    <col min="11" max="11" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" style="1"/>
+    <col min="13" max="14" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="E1" s="38" t="s">
+      <c r="B1" s="37"/>
+      <c r="E1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="16" t="s">
         <v>19</v>
       </c>
@@ -2870,9 +2909,9 @@
       <c r="N2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2913,7 +2952,7 @@
         <v>569597.92097563646</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2954,7 +2993,7 @@
         <v>194991.04672315175</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2985,7 +3024,7 @@
         <v>272254.75915081002</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3021,7 +3060,7 @@
         <v>103985.78714485586</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3029,7 +3068,7 @@
         <v>277.7569651</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3038,7 +3077,7 @@
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -3046,18 +3085,18 @@
         <v>33.226009980000001</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="42"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3066,7 +3105,7 @@
         <v>2143.7382610300001</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -3075,25 +3114,25 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="42"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="41"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:15">
+      <c r="A14" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="37"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -3102,7 +3141,7 @@
       </c>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -3111,7 +3150,7 @@
       </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -3120,7 +3159,7 @@
       </c>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -3129,7 +3168,7 @@
       </c>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -3138,7 +3177,7 @@
       </c>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -3146,7 +3185,7 @@
         <v>159.77569800000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -3154,7 +3193,7 @@
         <v>0.158493574</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -3162,7 +3201,7 @@
         <v>33.226009980000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -3171,13 +3210,13 @@
         <v>12688.939716394001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:15">
+      <c r="A27" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="38"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="37"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -3185,7 +3224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -3193,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -3201,7 +3240,7 @@
         <v>7128.3728600000004</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -3209,7 +3248,7 @@
         <v>15.654664349999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -3217,7 +3256,7 @@
         <v>19.821441230000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -3225,7 +3264,7 @@
         <v>218.76633150000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -3233,7 +3272,7 @@
         <v>0.497682607</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -3241,7 +3280,7 @@
         <v>33.226009980000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3250,13 +3289,13 @@
         <v>7416.3389896669996</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="38" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="38"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="37"/>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -3272,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -3280,7 +3319,7 @@
         <v>2719.7256868327318</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -3288,7 +3327,7 @@
         <v>15.65466434602483</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -3296,7 +3335,7 @@
         <v>34.596428111635966</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -3304,7 +3343,7 @@
         <v>510.20211806069682</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -3312,7 +3351,7 @@
         <v>0.19478691182100277</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -3320,7 +3359,7 @@
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3358,58 +3397,58 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.796875" style="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
     <col min="7" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="43"/>
+      <c r="E1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="30" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="13" t="s">
         <v>19</v>
       </c>
@@ -3434,9 +3473,9 @@
       <c r="N2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2" s="33"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3477,7 +3516,7 @@
         <v>15539130125.498091</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3518,7 +3557,7 @@
         <v>5485968858.2492762</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3549,7 +3588,7 @@
         <v>12563808952.395342</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3585,7 +3624,7 @@
         <v>3328788477.0379162</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3593,7 +3632,7 @@
         <v>36949013.689999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3602,7 +3641,7 @@
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -3610,18 +3649,18 @@
         <v>18683396.82</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="42"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3630,7 +3669,7 @@
         <v>98927629.546420008</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -3639,25 +3678,25 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="42"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="41"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:15">
+      <c r="A14" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="43"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -3666,7 +3705,7 @@
       </c>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -3675,7 +3714,7 @@
       </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -3684,7 +3723,7 @@
       </c>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -3693,7 +3732,7 @@
       </c>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -3702,7 +3741,7 @@
       </c>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -3710,7 +3749,7 @@
         <v>21269740.34</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -3718,7 +3757,7 @@
         <v>22931.63867</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -3726,7 +3765,7 @@
         <v>18683396.82</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -3735,13 +3774,13 @@
         <v>331495137.38966995</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
+    <row r="27" spans="1:15">
+      <c r="A27" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="44"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="43"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -3749,7 +3788,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -3757,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -3765,7 +3804,7 @@
         <v>69735037.475485206</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -3773,7 +3812,7 @@
         <v>7701094.9926574994</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -3781,7 +3820,7 @@
         <v>17124098.336521085</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -3789,7 +3828,7 @@
         <v>61938424.028104655</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -3797,7 +3836,7 @@
         <v>17341.877787438436</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -3805,7 +3844,7 @@
         <v>18683396.815427154</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3814,13 +3853,13 @@
         <v>175199393.52598304</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="44"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="43"/>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -3828,7 +3867,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -3836,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -3844,7 +3883,7 @@
         <v>69735037.475485206</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -3852,7 +3891,7 @@
         <v>7701094.9929999998</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -3860,7 +3899,7 @@
         <v>17124098.336521085</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -3868,7 +3907,7 @@
         <v>61938424.028104655</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -3876,7 +3915,7 @@
         <v>17341.877787438436</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -3884,7 +3923,7 @@
         <v>18683396.82</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3895,12 +3934,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:J9"/>
@@ -3908,6 +3941,12 @@
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A27:B27"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3922,23 +3961,23 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.796875" style="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
     <col min="7" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="45" t="s">
         <v>50</v>
       </c>
@@ -3946,7 +3985,7 @@
       <c r="E1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="45" t="s">
@@ -3961,11 +4000,11 @@
       <c r="L1" s="45"/>
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3973,7 +4012,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="45"/>
-      <c r="F2" s="47"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
@@ -3998,9 +4037,9 @@
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -4041,7 +4080,7 @@
         <v>1294.187200760909</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -4082,7 +4121,7 @@
         <v>384.52983552509102</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -4113,7 +4152,7 @@
         <v>954.12880179700005</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -4149,7 +4188,7 @@
         <v>264.80742599240904</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -4157,7 +4196,7 @@
         <v>2.431926984</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4166,7 +4205,7 @@
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4174,18 +4213,18 @@
         <v>1.6958613680000001</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="42"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -4194,7 +4233,7 @@
         <v>7.512825211</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -4203,25 +4242,25 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="42"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="41"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="45"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -4230,7 +4269,7 @@
       </c>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -4239,7 +4278,7 @@
       </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -4248,7 +4287,7 @@
       </c>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -4257,7 +4296,7 @@
       </c>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -4266,7 +4305,7 @@
       </c>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -4274,7 +4313,7 @@
         <v>1.399552839</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -4282,7 +4321,7 @@
         <v>2.580373E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -4290,7 +4329,7 @@
         <v>1.6958613680000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -4299,13 +4338,13 @@
         <v>23.001765391000003</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="45" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="45"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -4313,7 +4352,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -4321,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -4329,7 +4368,7 @@
         <v>10.32571748</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -4337,7 +4376,7 @@
         <v>0.486234151</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -4345,7 +4384,7 @@
         <v>0.83006886199999996</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -4353,7 +4392,7 @@
         <v>1.915739911</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -4361,7 +4400,7 @@
         <v>3.673529E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -4369,7 +4408,7 @@
         <v>1.6958613680000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -4378,13 +4417,13 @@
         <v>15.257295300999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="45"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -4392,7 +4431,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -4400,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -4408,7 +4447,7 @@
         <v>4.5853853789451549</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -4416,7 +4455,7 @@
         <v>0.48623415113583118</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -4424,7 +4463,7 @@
         <v>1.520253794218255</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -4432,7 +4471,7 @@
         <v>4.1811083796708388</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -4440,7 +4479,7 @@
         <v>1.6539262753034992E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -4448,7 +4487,7 @@
         <v>1.6958613678000689</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -4459,12 +4498,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:J9"/>
@@ -4472,6 +4505,12 @@
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A27:B27"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/validation/Total rocket emissions.xlsx
+++ b/validation/Total rocket emissions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791CE81C-16C5-490E-8C9F-FF1691C28EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177DA6EF-33D7-4492-8251-3F9D2D1FB197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Climate change" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="65">
   <si>
     <t>Category</t>
   </si>
@@ -230,25 +230,22 @@
   </si>
   <si>
     <t>NF Global</t>
+  </si>
+  <si>
+    <t>Annual kg/subscriber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000000"/>
-    <numFmt numFmtId="168" formatCode="0.000000000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.000000000"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,11 +274,6 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="10">
@@ -340,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -415,13 +407,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -431,24 +434,31 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,23 +472,59 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,20 +541,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -830,13 +875,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E160F6F2-9C9B-1B42-B2C8-1D2D657E43F0}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U6" sqref="U1:U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
@@ -851,47 +896,54 @@
     <col min="14" max="14" width="10.796875" style="1"/>
     <col min="15" max="16" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.796875" style="1"/>
+    <col min="18" max="18" width="16.69921875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="27"/>
+      <c r="D1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
       <c r="G1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="33" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -904,49 +956,48 @@
       <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="13" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="17">
         <v>630466.13520000002</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="17">
         <v>26728958.940000001</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -972,7 +1023,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4">
         <f>K3*B36</f>
-        <v>2757562910.4841204</v>
+        <v>2640880140.1489205</v>
       </c>
       <c r="P3" s="4">
         <f>B49*L3</f>
@@ -980,28 +1031,33 @@
       </c>
       <c r="Q3" s="5">
         <f>M3+O3+P3</f>
-        <v>3475873838.0868502</v>
-      </c>
-      <c r="R3" s="19">
+        <v>3359191067.7516508</v>
+      </c>
+      <c r="R3" s="5">
+        <f>Q3/H3/5</f>
+        <v>268.73528542013207</v>
+      </c>
+      <c r="S3" s="14">
         <f>((Q3/1000)*185)/1000000</f>
-        <v>643.03666004606725</v>
-      </c>
-      <c r="S3" s="19">
-        <f>((R3/H3)/5)*1000000</f>
-        <v>51.44293280368538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>621.45034753405537</v>
+      </c>
+      <c r="T3" s="14">
+        <f>((S3/H3)/5)*1000000</f>
+        <v>49.716027802724433</v>
+      </c>
+      <c r="U3" s="22"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="17">
         <v>4113533.9070000001</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="17">
         <v>4113533.9070000001</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1037,26 +1093,31 @@
         <f>M4+N4+P4</f>
         <v>967313291.22150195</v>
       </c>
-      <c r="R4" s="19">
-        <f t="shared" ref="R4:R6" si="0">((Q4/1000)*185)/1000000</f>
+      <c r="R4" s="5">
+        <f t="shared" ref="R4:R6" si="0">Q4/H4/5</f>
+        <v>241.82832280537551</v>
+      </c>
+      <c r="S4" s="14">
+        <f t="shared" ref="S4:S6" si="1">((Q4/1000)*185)/1000000</f>
         <v>178.95295887597788</v>
       </c>
-      <c r="S4" s="19">
-        <f t="shared" ref="S4:S5" si="1">((R4/H4)/5)*1000000</f>
+      <c r="T4" s="14">
+        <f>((S4/H4)/5)*1000000</f>
         <v>44.738239718994471</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="U4" s="22"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="17">
         <v>1616263.557</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="17">
         <v>1616263.557</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1082,26 +1143,31 @@
         <f>M5</f>
         <v>2842740735.90797</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="5">
         <f t="shared" si="0"/>
+        <v>162.44232776616971</v>
+      </c>
+      <c r="S5" s="14">
+        <f t="shared" si="1"/>
         <v>525.90703614297445</v>
       </c>
-      <c r="S5" s="19">
-        <f t="shared" si="1"/>
+      <c r="T5" s="14">
+        <f>((S5/H5)/5)*1000000</f>
         <v>30.051830636741396</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="U5" s="22"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="17">
         <v>4744753.3389999997</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="17">
         <v>4744753.3389999997</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1122,7 +1188,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4">
         <f>B36*K6</f>
-        <v>411576553.80360007</v>
+        <v>394161214.94760007</v>
       </c>
       <c r="P6" s="4">
         <f>B49*L6</f>
@@ -1130,89 +1196,97 @@
       </c>
       <c r="Q6" s="5">
         <f>O6+P6</f>
-        <v>704598361.03998005</v>
-      </c>
-      <c r="R6" s="19">
+        <v>687183022.18397999</v>
+      </c>
+      <c r="R6" s="5">
         <f t="shared" si="0"/>
-        <v>130.35069679239632</v>
-      </c>
-      <c r="S6" s="19">
-        <f>((R6/H6)/15)*1000000</f>
-        <v>3.4760185811305688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>54.974641774718393</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" si="1"/>
+        <v>127.12885910403629</v>
+      </c>
+      <c r="T6" s="14">
+        <f>((S6/H6)/15)*1000000</f>
+        <v>3.3901029094409676</v>
+      </c>
+      <c r="U6" s="22"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="17">
         <v>5594990.9170000004</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="17">
         <v>5594990.9170000004</v>
       </c>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="17">
         <v>17220.724910000001</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="17">
         <v>17220.724910000001</v>
       </c>
-      <c r="S8" s="8"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="17">
         <v>5666556.7419999996</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="17">
         <v>5666556.7419999996</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35" t="s">
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="31" t="s">
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="R9" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="T9" s="33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1227,37 +1301,38 @@
         <f>SUM(E3:E9)</f>
         <v>48482278.126910001</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="17" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="32"/>
+      <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1291,16 +1366,20 @@
         <f>M11+O11+P11</f>
         <v>6848679782.4852505</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="5">
+        <f>Q11/H11/5</f>
+        <v>547.89438259882002</v>
+      </c>
+      <c r="S11" s="14">
         <f>((Q11/1000)*185)/1000000</f>
         <v>1267.0057597597713</v>
       </c>
-      <c r="S11" s="19">
-        <f>((R11/H11)/5)*1000000</f>
+      <c r="T11" s="14">
+        <f>((S11/H11)/5)*1000000</f>
         <v>101.36046078078171</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1334,16 +1413,20 @@
         <f>M12+N12+P12</f>
         <v>1476555757.171102</v>
       </c>
-      <c r="R12" s="19">
-        <f t="shared" ref="R12:R14" si="2">((Q12/1000)*185)/1000000</f>
+      <c r="R12" s="5">
+        <f t="shared" ref="R12:R14" si="2">Q12/H12/5</f>
+        <v>369.13893929277549</v>
+      </c>
+      <c r="S12" s="14">
+        <f t="shared" ref="S12:S14" si="3">((Q12/1000)*185)/1000000</f>
         <v>273.16281507665389</v>
       </c>
-      <c r="S12" s="19">
-        <f t="shared" ref="S12:S13" si="3">((R12/H12)/5)*1000000</f>
+      <c r="T12" s="14">
+        <f t="shared" ref="T12:T13" si="4">((S12/H12)/5)*1000000</f>
         <v>68.290703769163471</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1367,24 +1450,28 @@
         <f>M13</f>
         <v>6157249322.1175699</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R13" s="5">
         <f t="shared" si="2"/>
+        <v>351.84281840671827</v>
+      </c>
+      <c r="S13" s="14">
+        <f t="shared" si="3"/>
         <v>1139.0911245917505</v>
       </c>
-      <c r="S13" s="19">
-        <f t="shared" si="3"/>
+      <c r="T13" s="14">
+        <f t="shared" si="4"/>
         <v>65.090921405242895</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="D14" s="27" t="s">
+      <c r="B14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="28"/>
       <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1413,16 +1500,20 @@
         <f>O14+P14</f>
         <v>1840969134.1599803</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="5">
         <f t="shared" si="2"/>
+        <v>147.27753073279843</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" si="3"/>
         <v>340.57928981959634</v>
       </c>
-      <c r="S14" s="19">
-        <f>((R14/H14)/15)*1000000</f>
+      <c r="T14" s="14">
+        <f>((S14/H14)/15)*1000000</f>
         <v>9.0821143951892349</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1436,131 +1527,131 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="17">
         <v>288655.10960000003</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="17">
         <v>12031437.189999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="17">
         <v>44680412.979999997</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="17">
         <v>44680412.979999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="17">
         <v>1616263.557</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="17">
         <v>1616263.557</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="17">
         <v>968910.19940000004</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="17">
         <v>968910.19940000004</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="17">
         <v>3223330.483</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="17">
         <v>3223330.483</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="17">
         <v>4328.6038079999998</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="17">
         <v>4328.6038079999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="17">
         <v>5666556.7419999996</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="17">
         <v>5666556.7419999996</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="5">
         <f>SUM(B16:B22)</f>
         <v>56448457.674807996</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="5">
         <f>SUM(E16:E22)</f>
         <v>68191239.755208001</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="D27" s="27" t="s">
+      <c r="B27" s="27"/>
+      <c r="D27" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -1574,131 +1665,131 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="1">
-        <v>2201094.5079999999</v>
+      <c r="B29" s="17">
+        <v>459560.62240000005</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="17">
         <v>19380198.059999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="17">
         <v>24396973.440000001</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="17">
         <v>24396973.440000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="17">
         <v>1616263.557</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="17">
         <v>1616263.557</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="17">
         <v>2856831.7689999999</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="17">
         <v>2856831.7689999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="17">
         <v>4409160.7</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="17">
         <v>4409160.7</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="17">
         <v>10774.664360000001</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="17">
         <v>10774.664360000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="17">
         <v>5666556.7419999996</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="17">
         <v>5666556.7419999996</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="5">
         <f>SUM(B29:B35)</f>
-        <v>41157655.380360007</v>
+        <v>39416121.494760007</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="5">
         <f>SUM(E29:E35)</f>
         <v>58336758.932360001</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="26" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="D40" s="27" t="s">
+      <c r="B40" s="27"/>
+      <c r="D40" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="27"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -1712,133 +1803,136 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="17">
         <v>467816.8</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="17">
         <v>107643343.2</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="17">
         <v>11018755.48</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="17">
         <v>11018755.48</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="17">
         <v>1616263.557</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="17">
         <v>1616263.557</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="17">
         <v>4793267.4800000004</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="17">
         <v>4793267.4800000004</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="17">
         <v>8984275.3359999992</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="17">
         <v>8984275.3359999992</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="17">
         <v>11043.186820000001</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="17">
         <v>11043.186820000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="17">
         <v>5666556.7419999996</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="17">
         <v>5666556.7419999996</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="5">
         <f>SUM(B42:B48)</f>
         <v>32557978.58182</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="5">
         <f>SUM(E42:E48)</f>
         <v>139733504.98182002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="S9:S10"/>
+  <mergeCells count="24">
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="S9:S10"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="M9:P9"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="R9:R10"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="D40:E40"/>
@@ -1848,6 +1942,7 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1858,11 +1953,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559E036-65B0-4E46-95DA-9D9F88511943}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
@@ -1882,42 +1977,42 @@
     <col min="20" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="43"/>
       <c r="D1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="G1" s="25" t="s">
+      <c r="E1" s="28"/>
+      <c r="G1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="33" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1926,48 +2021,48 @@
       <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="13" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="33"/>
+      <c r="Q2" s="46"/>
       <c r="S2" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="17">
         <v>6837.18</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="17">
         <v>30767.31</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2003,25 +2098,25 @@
         <f>M3+O3+P3</f>
         <v>2090177.9238076922</v>
       </c>
-      <c r="S3" s="47">
+      <c r="S3" s="15">
         <v>161000000</v>
       </c>
-      <c r="T3" s="48">
+      <c r="T3" s="16">
         <f>Q3/S3</f>
         <v>1.2982471576445293E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="17">
         <v>0.27747851400000001</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="17">
         <v>0.27747851400000001</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2057,25 +2152,25 @@
         <f>M4+N4+P4</f>
         <v>251921.92384431537</v>
       </c>
-      <c r="S4" s="47">
+      <c r="S4" s="15">
         <v>161000000</v>
       </c>
-      <c r="T4" s="48">
+      <c r="T4" s="16">
         <f t="shared" ref="T4:T6" si="0">Q4/S4</f>
         <v>1.5647324462379837E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="17">
         <v>0.156575296</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="17">
         <v>0.156575296</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2101,25 +2196,25 @@
         <f>M5</f>
         <v>868609.1073512088</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S5" s="15">
         <v>161000000</v>
       </c>
-      <c r="T5" s="48">
+      <c r="T5" s="16">
         <f t="shared" si="0"/>
         <v>5.3950876232994336E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="17">
         <v>0.54687465300000004</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="17">
         <v>0.54687465300000004</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2150,121 +2245,123 @@
         <f>O6+P6</f>
         <v>830586.46984795365</v>
       </c>
-      <c r="S6" s="47">
+      <c r="S6" s="15">
         <v>161000000</v>
       </c>
-      <c r="T6" s="48">
+      <c r="T6" s="16">
         <f t="shared" si="0"/>
         <v>5.1589221729686566E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="17">
         <v>0.49942301500000003</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="17">
         <v>0.49942301500000003</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="17">
         <v>3.5682840000000001E-3</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="17">
         <v>3.5682840000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="17">
         <v>0.77787040500000004</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="17">
         <v>0.77787040500000004</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35" t="s">
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="31" t="s">
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="5">
         <f>SUM(B3:B9)</f>
         <v>6839.4417901669985</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="5">
         <f>SUM(E3:E9)</f>
         <v>30769.571790167</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="17" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="32"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="Q10" s="49"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2299,7 +2396,9 @@
         <v>5809683.8538076933</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2334,7 +2433,9 @@
         <v>770294.11384431541</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2359,15 +2460,15 @@
         <v>3907735.6173512088</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="D14" s="27" t="s">
+      <c r="B14" s="43"/>
+      <c r="D14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="28"/>
       <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
@@ -2397,11 +2498,11 @@
         <v>2123007.6698479541</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2411,135 +2512,147 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="17">
         <v>3157.14</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="17">
         <v>13872.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="17">
         <v>3.1118177299999998</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="17">
         <v>3.1118177299999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="17">
         <v>0.156575296</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="17">
         <v>0.156575296</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="17">
         <v>0.109998823</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="17">
         <v>0.109998823</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="17">
         <v>0.28784860099999998</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="17">
         <v>0.28784860099999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="17">
         <v>1.339551E-3</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="17">
         <v>1.339551E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="17">
         <v>0.77787040500000004</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="17">
         <v>0.77787040500000004</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="5">
         <f>SUM(B16:B22)</f>
         <v>3161.5854504059998</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="5">
         <f>SUM(E16:E22)</f>
         <v>13876.695450405998</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="36" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="D27" s="27" t="s">
+      <c r="B27" s="43"/>
+      <c r="D27" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -2549,135 +2662,147 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="17">
         <v>4997.16</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="17">
         <v>22319.78</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="17">
         <v>1.694648122</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="17">
         <v>1.694648122</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="17">
         <v>0.156575296</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="17">
         <v>0.156575296</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="17">
         <v>0.32843673797657136</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="17">
         <v>0.32843673800000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="17">
         <v>0.39363580799999998</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="17">
         <v>0.39363580799999998</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="17">
         <v>2.4539179999999998E-3</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="17">
         <v>2.4539179999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="17">
         <v>0.77787040500000004</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="17">
         <v>0.77787040500000004</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="5">
         <f>SUM(B29:B35)</f>
         <v>5000.5136202869762</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="5">
         <f>SUM(E29:E35)</f>
         <v>22323.133620287001</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="D40" s="27" t="s">
+      <c r="B40" s="43"/>
+      <c r="D40" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="27"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3" t="s">
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -2687,139 +2812,140 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="17">
         <v>86728.6</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="17">
         <v>211083.6</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="17">
         <v>0.74573505127734652</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="17">
         <v>0.74573505127734696</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="17">
         <v>0.15657529619262275</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="17">
         <v>0.15657529619262275</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="17">
         <v>0.22329274937454158</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="17">
         <v>0.22329274937454158</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="17">
         <v>0.75392759599629455</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="17">
         <v>0.75392759599629455</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="17">
         <v>1.8928006407470293E-3</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="17">
         <v>1.8928006407470293E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="17">
         <v>0.7778704047126872</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="17">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="5">
         <f>SUM(B42:B48)</f>
         <v>86731.259293898198</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="5">
         <f>SUM(E42:E48)</f>
         <v>211086.25929389821</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I1:L1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="M9:P9"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="M1:P1"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2830,11 +2956,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCD65F1-702F-2B4B-BF58-F41D5B429507}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.796875" style="1" bestFit="1" customWidth="1"/>
@@ -2849,73 +2975,73 @@
     <col min="16" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="50"/>
+      <c r="E1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38" t="s">
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="51" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2" s="51"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="17">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -2952,11 +3078,11 @@
         <v>569597.92097563646</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="17">
         <v>1783.3371179999999</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2993,11 +3119,11 @@
         <v>194991.04672315175</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="17">
         <v>15.654664349999999</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3024,11 +3150,11 @@
         <v>272254.75915081002</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="17">
         <v>32.926631960000002</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3060,52 +3186,52 @@
         <v>103985.78714485586</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="17">
         <v>277.7569651</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="17">
         <v>0.83687164000000003</v>
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="17">
         <v>33.226009980000001</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="5">
         <f>SUM(B3:B9)</f>
         <v>2143.7382610300001</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="39"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -3114,109 +3240,109 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="41"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="37" t="s">
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B14" s="50"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="17">
         <v>0</v>
       </c>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="17">
         <v>12473.408600000001</v>
       </c>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="17">
         <v>15.654664349999999</v>
       </c>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="17">
         <v>6.7162504900000002</v>
       </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="17">
         <v>159.77569800000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="17">
         <v>0.158493574</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="17">
         <v>33.226009980000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="5">
         <f>SUM(B16:B22)</f>
         <v>12688.939716394001</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="37"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="B27" s="50"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -3224,78 +3350,78 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="17">
         <v>7128.3728600000004</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="17">
         <v>15.654664349999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="17">
         <v>19.821441230000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="17">
         <v>218.76633150000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="17">
         <v>0.497682607</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="17">
         <v>33.226009980000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="5">
         <f>SUM(B29:B35)</f>
         <v>7416.3389896669996</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="37" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="37"/>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="B40" s="50"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -3303,67 +3429,67 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="17">
         <v>2719.7256868327318</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="17">
         <v>15.65466434602483</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="17">
         <v>34.596428111635966</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="17">
         <v>510.20211806069682</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="17">
         <v>0.19478691182100277</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="17">
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="5">
         <f>SUM(B42:B48)</f>
         <v>3313.5996942428742</v>
       </c>
@@ -3393,14 +3519,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD704017-C293-6A41-A602-235B528EE5B4}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" style="6" customWidth="1"/>
     <col min="3" max="4" width="10.796875" style="1"/>
     <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
@@ -3413,73 +3539,73 @@
     <col min="16" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="56"/>
+      <c r="E1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="33" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="33"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="4" t="s">
+      <c r="O2" s="46"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="17">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -3516,11 +3642,11 @@
         <v>15539130125.498091</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="17">
         <v>20253601.640000001</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -3557,11 +3683,11 @@
         <v>5485968858.2492762</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="17">
         <v>7701094.9929999998</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3588,11 +3714,11 @@
         <v>12563808952.395342</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="17">
         <v>15292951.199999999</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3624,52 +3750,52 @@
         <v>3328788477.0379162</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="17">
         <v>36949013.689999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="17">
         <v>47571.203419999998</v>
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="17">
         <v>18683396.82</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="5">
         <f>SUM(B3:B9)</f>
         <v>98927629.546420008</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="39"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -3678,256 +3804,256 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="41"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="43" t="s">
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="56"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="4" t="s">
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="17">
         <v>0</v>
       </c>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="4" t="s">
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="17">
         <v>280703930.5</v>
       </c>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="4" t="s">
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="17">
         <v>7701094.9929999998</v>
       </c>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="4" t="s">
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="17">
         <v>3114043.0980000002</v>
       </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="4" t="s">
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="17">
         <v>21269740.34</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="17">
         <v>22931.63867</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="17">
         <v>18683396.82</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="5">
         <f>SUM(B16:B22)</f>
         <v>331495137.38966995</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="43" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="43"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="3" t="s">
+      <c r="B27" s="56"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="24">
         <v>69735037.475485206</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="24">
         <v>7701094.9926574994</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="24">
         <v>17124098.336521085</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="24">
         <v>61938424.028104655</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="24">
         <v>17341.877787438436</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="24">
         <v>18683396.815427154</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="5">
         <f>SUM(B29:B35)</f>
         <v>175199393.52598304</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="43" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="43"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
+      <c r="B40" s="56"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="17">
         <v>69735037.475485206</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="17">
         <v>7701094.9929999998</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="15">
         <v>17124098.336521085</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="24">
         <v>61938424.028104655</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="17">
         <v>17341.877787438436</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="17">
         <v>18683396.82</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="5">
         <f>SUM(B42:B48)</f>
         <v>175199393.53089839</v>
       </c>
@@ -3957,14 +4083,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155E3A6C-6937-CF4F-86E2-086E04CF37A1}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" style="22" customWidth="1"/>
     <col min="3" max="4" width="10.796875" style="1"/>
     <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
@@ -3977,42 +4103,42 @@
     <col min="16" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="E1" s="45" t="s">
+      <c r="B1" s="58"/>
+      <c r="E1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="44" t="s">
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
@@ -4037,13 +4163,13 @@
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="4" t="s">
+      <c r="O2" s="57"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="21">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -4080,11 +4206,11 @@
         <v>1294.187200760909</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="21">
         <v>1.51530806</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -4121,11 +4247,11 @@
         <v>384.52983552509102</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="21">
         <v>0.486234151</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -4152,11 +4278,11 @@
         <v>954.12880179700005</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="21">
         <v>1.3787279640000001</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -4188,52 +4314,52 @@
         <v>264.80742599240904</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="21">
         <v>2.431926984</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="21">
         <v>4.7666840000000002E-3</v>
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="21">
         <v>1.6958613680000001</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="20">
         <f>SUM(B3:B9)</f>
         <v>7.512825211</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="39"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -4242,256 +4368,256 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="41"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="45" t="s">
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="58"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="4" t="s">
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="21">
         <v>0</v>
       </c>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="4" t="s">
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="21">
         <v>19.136126900000001</v>
       </c>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="4" t="s">
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="21">
         <v>0.486234151</v>
       </c>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="4" t="s">
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="21">
         <v>0.28140976000000001</v>
       </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="4" t="s">
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="21">
         <v>1.399552839</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="21">
         <v>2.580373E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="21">
         <v>1.6958613680000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="20">
         <f>SUM(B16:B22)</f>
         <v>23.001765391000003</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="45" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="45"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="3" t="s">
+      <c r="B27" s="58"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="21">
         <v>10.32571748</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="21">
         <v>0.486234151</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="21">
         <v>0.83006886199999996</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="21">
         <v>1.915739911</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="21">
         <v>3.673529E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="21">
         <v>1.6958613680000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="20">
         <f>SUM(B29:B35)</f>
         <v>15.257295300999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="45" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="45"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
+      <c r="B40" s="58"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="23">
         <v>4.5853853789451549</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="23">
         <v>0.48623415113583118</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="23">
         <v>1.520253794218255</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="23">
         <v>4.1811083796708388</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="23">
         <v>1.6539262753034992E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="23">
         <v>1.6958613678000689</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="20">
         <f>SUM(B42:B48)</f>
         <v>12.470496998045451</v>
       </c>
